--- a/planilhas/outputs/Relatorio_Dominios_Ambiguos.xlsx
+++ b/planilhas/outputs/Relatorio_Dominios_Ambiguos.xlsx
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.018</v>
+        <v>0.024</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0.018</v>
+        <v>0.024</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -1567,7 +1567,7 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>0.018</v>
+        <v>0.024</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -1587,7 +1587,7 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>0.045</v>
+        <v>0.027</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>0.045</v>
+        <v>0.027</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -1627,7 +1627,7 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>0.018</v>
+        <v>0.024</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>0.018</v>
+        <v>0.024</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>0.018</v>
+        <v>0.024</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -1787,7 +1787,7 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>0.018</v>
+        <v>0.024</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -2267,7 +2267,7 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>0.024</v>
+        <v>0.032</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -2343,15 +2343,15 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>PARAFUSOS</t>
+          <t>CONEXOES AGUA</t>
         </is>
       </c>
       <c r="C96" t="n">
-        <v>0.07099999999999999</v>
+        <v>0.025</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>[('PARAFUSOS', 3.0), ('CONEXOES AGUA', 3.0)]</t>
+          <t>[('CONEXOES AGUA', 3.9428571428571426), ('PARAFUSOS', 3.0)]</t>
         </is>
       </c>
     </row>
@@ -2447,7 +2447,7 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>0.037</v>
+        <v>0.048</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -2723,7 +2723,7 @@
         </is>
       </c>
       <c r="C115" t="n">
-        <v>0.024</v>
+        <v>0.032</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -2743,7 +2743,7 @@
         </is>
       </c>
       <c r="C116" t="n">
-        <v>0.018</v>
+        <v>0.024</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="C142" t="n">
-        <v>0.018</v>
+        <v>0.024</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -3283,7 +3283,7 @@
         </is>
       </c>
       <c r="C143" t="n">
-        <v>0.018</v>
+        <v>0.024</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="C150" t="n">
-        <v>0.024</v>
+        <v>0.032</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -3499,7 +3499,7 @@
         </is>
       </c>
       <c r="C154" t="n">
-        <v>0.018</v>
+        <v>0.024</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -3559,7 +3559,7 @@
         </is>
       </c>
       <c r="C157" t="n">
-        <v>0.018</v>
+        <v>0.024</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -3779,7 +3779,7 @@
         </is>
       </c>
       <c r="C168" t="n">
-        <v>0.018</v>
+        <v>0.024</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -4631,7 +4631,7 @@
         </is>
       </c>
       <c r="C211" t="n">
-        <v>0.018</v>
+        <v>0.024</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -4751,7 +4751,7 @@
         </is>
       </c>
       <c r="C217" t="n">
-        <v>0.037</v>
+        <v>0.048</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -5211,7 +5211,7 @@
         </is>
       </c>
       <c r="C240" t="n">
-        <v>0.037</v>
+        <v>0.048</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -5231,7 +5231,7 @@
         </is>
       </c>
       <c r="C241" t="n">
-        <v>0.037</v>
+        <v>0.048</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -5251,7 +5251,7 @@
         </is>
       </c>
       <c r="C242" t="n">
-        <v>0.037</v>
+        <v>0.048</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -5291,7 +5291,7 @@
         </is>
       </c>
       <c r="C244" t="n">
-        <v>0.018</v>
+        <v>0.024</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -5311,7 +5311,7 @@
         </is>
       </c>
       <c r="C245" t="n">
-        <v>0.018</v>
+        <v>0.024</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -5711,7 +5711,7 @@
         </is>
       </c>
       <c r="C265" t="n">
-        <v>0.018</v>
+        <v>0.024</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -5731,7 +5731,7 @@
         </is>
       </c>
       <c r="C266" t="n">
-        <v>0.018</v>
+        <v>0.024</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -5791,7 +5791,7 @@
         </is>
       </c>
       <c r="C269" t="n">
-        <v>0.018</v>
+        <v>0.024</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -5811,7 +5811,7 @@
         </is>
       </c>
       <c r="C270" t="n">
-        <v>0.018</v>
+        <v>0.024</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -6245,17 +6245,13 @@
           <t>PLUG 1/2 KRONA</t>
         </is>
       </c>
-      <c r="B292" t="inlineStr">
-        <is>
-          <t>ELETRICA</t>
-        </is>
-      </c>
+      <c r="B292" t="inlineStr"/>
       <c r="C292" t="n">
-        <v>0.018</v>
+        <v>0</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
-          <t>[('ELETRICA', 3.0)]</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -6867,7 +6863,7 @@
         </is>
       </c>
       <c r="C323" t="n">
-        <v>0.018</v>
+        <v>0.024</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -7819,7 +7815,7 @@
         </is>
       </c>
       <c r="C371" t="n">
-        <v>0.045</v>
+        <v>0.027</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -7839,7 +7835,7 @@
         </is>
       </c>
       <c r="C372" t="n">
-        <v>0.018</v>
+        <v>0.024</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -7855,15 +7851,15 @@
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>ELETRICA</t>
+          <t>TOMADAS</t>
         </is>
       </c>
       <c r="C373" t="n">
-        <v>0.018</v>
+        <v>0.027</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
-          <t>[('ELETRICA', 3.0)]</t>
+          <t>[('TOMADAS', 3.0)]</t>
         </is>
       </c>
     </row>
@@ -7875,15 +7871,15 @@
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>ELETRICA</t>
+          <t>TOMADAS</t>
         </is>
       </c>
       <c r="C374" t="n">
-        <v>0.018</v>
+        <v>0.027</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
-          <t>[('ELETRICA', 3.0)]</t>
+          <t>[('TOMADAS', 3.0)]</t>
         </is>
       </c>
     </row>
@@ -7919,7 +7915,7 @@
         </is>
       </c>
       <c r="C376" t="n">
-        <v>0.018</v>
+        <v>0.024</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -7935,15 +7931,15 @@
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>ELETRICA</t>
+          <t>TOMADAS</t>
         </is>
       </c>
       <c r="C377" t="n">
-        <v>0.018</v>
+        <v>0.027</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
-          <t>[('ELETRICA', 3.0)]</t>
+          <t>[('TOMADAS', 3.0)]</t>
         </is>
       </c>
     </row>
@@ -7955,15 +7951,15 @@
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>ELETRICA</t>
+          <t>TOMADAS</t>
         </is>
       </c>
       <c r="C378" t="n">
-        <v>0.018</v>
+        <v>0.027</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
-          <t>[('ELETRICA', 3.0)]</t>
+          <t>[('TOMADAS', 3.0)]</t>
         </is>
       </c>
     </row>
@@ -7975,15 +7971,15 @@
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>ELETRICA</t>
+          <t>TOMADAS</t>
         </is>
       </c>
       <c r="C379" t="n">
-        <v>0.018</v>
+        <v>0.027</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
-          <t>[('ELETRICA', 3.0)]</t>
+          <t>[('TOMADAS', 3.0)]</t>
         </is>
       </c>
     </row>
@@ -8087,15 +8083,15 @@
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>ELETRICA</t>
+          <t>TOMADAS</t>
         </is>
       </c>
       <c r="C385" t="n">
-        <v>0.018</v>
+        <v>0.027</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
-          <t>[('ELETRICA', 3.0)]</t>
+          <t>[('TOMADAS', 3.0)]</t>
         </is>
       </c>
     </row>
@@ -8105,17 +8101,13 @@
           <t>PLUG TRIANG 2P 10A COLORIDA MEC</t>
         </is>
       </c>
-      <c r="B386" t="inlineStr">
-        <is>
-          <t>ELETRICA</t>
-        </is>
-      </c>
+      <c r="B386" t="inlineStr"/>
       <c r="C386" t="n">
-        <v>0.018</v>
+        <v>0</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
-          <t>[('ELETRICA', 3.0)]</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -8451,7 +8443,7 @@
         </is>
       </c>
       <c r="C403" t="n">
-        <v>0.018</v>
+        <v>0.024</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -12383,15 +12375,15 @@
       </c>
       <c r="B600" t="inlineStr">
         <is>
-          <t>ELETRICA</t>
+          <t>TOMADAS</t>
         </is>
       </c>
       <c r="C600" t="n">
-        <v>0.018</v>
+        <v>0.027</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
-          <t>[('ELETRICA', 3.0)]</t>
+          <t>[('TOMADAS', 3.0)]</t>
         </is>
       </c>
     </row>
@@ -12407,7 +12399,7 @@
         </is>
       </c>
       <c r="C601" t="n">
-        <v>0.045</v>
+        <v>0.027</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -12423,15 +12415,15 @@
       </c>
       <c r="B602" t="inlineStr">
         <is>
-          <t>ELETRICA</t>
+          <t>TOMADAS</t>
         </is>
       </c>
       <c r="C602" t="n">
-        <v>0.018</v>
+        <v>0.027</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
-          <t>[('ELETRICA', 3.0)]</t>
+          <t>[('TOMADAS', 3.0)]</t>
         </is>
       </c>
     </row>
@@ -12467,7 +12459,7 @@
         </is>
       </c>
       <c r="C604" t="n">
-        <v>0.018</v>
+        <v>0.024</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -14247,7 +14239,7 @@
         </is>
       </c>
       <c r="C693" t="n">
-        <v>0.136</v>
+        <v>0.082</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -14267,7 +14259,7 @@
         </is>
       </c>
       <c r="C694" t="n">
-        <v>0.136</v>
+        <v>0.082</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -14287,7 +14279,7 @@
         </is>
       </c>
       <c r="C695" t="n">
-        <v>0.075</v>
+        <v>0.045</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -15623,15 +15615,15 @@
       </c>
       <c r="B762" t="inlineStr">
         <is>
-          <t>ELETRICA</t>
+          <t>TOMADAS</t>
         </is>
       </c>
       <c r="C762" t="n">
-        <v>0.018</v>
+        <v>0.027</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
-          <t>[('ELETRICA', 3.0)]</t>
+          <t>[('TOMADAS', 3.0)]</t>
         </is>
       </c>
     </row>
@@ -15647,7 +15639,7 @@
         </is>
       </c>
       <c r="C763" t="n">
-        <v>0.045</v>
+        <v>0.027</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -15667,7 +15659,7 @@
         </is>
       </c>
       <c r="C764" t="n">
-        <v>0.045</v>
+        <v>0.027</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -15703,7 +15695,7 @@
         </is>
       </c>
       <c r="C766" t="n">
-        <v>0.045</v>
+        <v>0.027</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -15723,7 +15715,7 @@
         </is>
       </c>
       <c r="C767" t="n">
-        <v>0.045</v>
+        <v>0.027</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -15743,7 +15735,7 @@
         </is>
       </c>
       <c r="C768" t="n">
-        <v>0.045</v>
+        <v>0.027</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -15763,7 +15755,7 @@
         </is>
       </c>
       <c r="C769" t="n">
-        <v>0.045</v>
+        <v>0.027</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -15783,7 +15775,7 @@
         </is>
       </c>
       <c r="C770" t="n">
-        <v>0.045</v>
+        <v>0.027</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -15803,7 +15795,7 @@
         </is>
       </c>
       <c r="C771" t="n">
-        <v>0.045</v>
+        <v>0.027</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -15823,7 +15815,7 @@
         </is>
       </c>
       <c r="C772" t="n">
-        <v>0.045</v>
+        <v>0.027</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -15843,7 +15835,7 @@
         </is>
       </c>
       <c r="C773" t="n">
-        <v>0.024</v>
+        <v>0.032</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -15863,7 +15855,7 @@
         </is>
       </c>
       <c r="C774" t="n">
-        <v>0.045</v>
+        <v>0.027</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -15883,7 +15875,7 @@
         </is>
       </c>
       <c r="C775" t="n">
-        <v>0.018</v>
+        <v>0.024</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -15903,7 +15895,7 @@
         </is>
       </c>
       <c r="C776" t="n">
-        <v>0.024</v>
+        <v>0.032</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -15923,7 +15915,7 @@
         </is>
       </c>
       <c r="C777" t="n">
-        <v>0.045</v>
+        <v>0.027</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -15943,7 +15935,7 @@
         </is>
       </c>
       <c r="C778" t="n">
-        <v>0.045</v>
+        <v>0.027</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -15963,7 +15955,7 @@
         </is>
       </c>
       <c r="C779" t="n">
-        <v>0.024</v>
+        <v>0.032</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -15983,7 +15975,7 @@
         </is>
       </c>
       <c r="C780" t="n">
-        <v>0.045</v>
+        <v>0.027</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -16003,7 +15995,7 @@
         </is>
       </c>
       <c r="C781" t="n">
-        <v>0.045</v>
+        <v>0.027</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -16023,7 +16015,7 @@
         </is>
       </c>
       <c r="C782" t="n">
-        <v>0.045</v>
+        <v>0.027</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -16059,7 +16051,7 @@
         </is>
       </c>
       <c r="C784" t="n">
-        <v>0.045</v>
+        <v>0.027</v>
       </c>
       <c r="D784" t="inlineStr">
         <is>
@@ -16079,7 +16071,7 @@
         </is>
       </c>
       <c r="C785" t="n">
-        <v>0.045</v>
+        <v>0.027</v>
       </c>
       <c r="D785" t="inlineStr">
         <is>
@@ -16099,7 +16091,7 @@
         </is>
       </c>
       <c r="C786" t="n">
-        <v>0.045</v>
+        <v>0.027</v>
       </c>
       <c r="D786" t="inlineStr">
         <is>
@@ -16119,7 +16111,7 @@
         </is>
       </c>
       <c r="C787" t="n">
-        <v>0.045</v>
+        <v>0.027</v>
       </c>
       <c r="D787" t="inlineStr">
         <is>
@@ -16155,7 +16147,7 @@
         </is>
       </c>
       <c r="C789" t="n">
-        <v>0.045</v>
+        <v>0.027</v>
       </c>
       <c r="D789" t="inlineStr">
         <is>
@@ -16175,7 +16167,7 @@
         </is>
       </c>
       <c r="C790" t="n">
-        <v>0.091</v>
+        <v>0.055</v>
       </c>
       <c r="D790" t="inlineStr">
         <is>
@@ -16195,7 +16187,7 @@
         </is>
       </c>
       <c r="C791" t="n">
-        <v>0.045</v>
+        <v>0.027</v>
       </c>
       <c r="D791" t="inlineStr">
         <is>
@@ -16215,7 +16207,7 @@
         </is>
       </c>
       <c r="C792" t="n">
-        <v>0.045</v>
+        <v>0.027</v>
       </c>
       <c r="D792" t="inlineStr">
         <is>
@@ -16235,7 +16227,7 @@
         </is>
       </c>
       <c r="C793" t="n">
-        <v>0.061</v>
+        <v>0.036</v>
       </c>
       <c r="D793" t="inlineStr">
         <is>
@@ -16255,7 +16247,7 @@
         </is>
       </c>
       <c r="C794" t="n">
-        <v>0.061</v>
+        <v>0.036</v>
       </c>
       <c r="D794" t="inlineStr">
         <is>
@@ -16307,7 +16299,7 @@
         </is>
       </c>
       <c r="C797" t="n">
-        <v>0.045</v>
+        <v>0.027</v>
       </c>
       <c r="D797" t="inlineStr">
         <is>
@@ -16327,7 +16319,7 @@
         </is>
       </c>
       <c r="C798" t="n">
-        <v>0.045</v>
+        <v>0.027</v>
       </c>
       <c r="D798" t="inlineStr">
         <is>
@@ -16347,7 +16339,7 @@
         </is>
       </c>
       <c r="C799" t="n">
-        <v>0.091</v>
+        <v>0.055</v>
       </c>
       <c r="D799" t="inlineStr">
         <is>
@@ -16367,7 +16359,7 @@
         </is>
       </c>
       <c r="C800" t="n">
-        <v>0.045</v>
+        <v>0.027</v>
       </c>
       <c r="D800" t="inlineStr">
         <is>
@@ -16387,7 +16379,7 @@
         </is>
       </c>
       <c r="C801" t="n">
-        <v>0.045</v>
+        <v>0.027</v>
       </c>
       <c r="D801" t="inlineStr">
         <is>
@@ -16407,7 +16399,7 @@
         </is>
       </c>
       <c r="C802" t="n">
-        <v>0.045</v>
+        <v>0.027</v>
       </c>
       <c r="D802" t="inlineStr">
         <is>
@@ -16427,7 +16419,7 @@
         </is>
       </c>
       <c r="C803" t="n">
-        <v>0.045</v>
+        <v>0.027</v>
       </c>
       <c r="D803" t="inlineStr">
         <is>
@@ -16447,7 +16439,7 @@
         </is>
       </c>
       <c r="C804" t="n">
-        <v>0.091</v>
+        <v>0.055</v>
       </c>
       <c r="D804" t="inlineStr">
         <is>
@@ -16467,7 +16459,7 @@
         </is>
       </c>
       <c r="C805" t="n">
-        <v>0.091</v>
+        <v>0.055</v>
       </c>
       <c r="D805" t="inlineStr">
         <is>
@@ -16487,7 +16479,7 @@
         </is>
       </c>
       <c r="C806" t="n">
-        <v>0.091</v>
+        <v>0.055</v>
       </c>
       <c r="D806" t="inlineStr">
         <is>
@@ -16507,7 +16499,7 @@
         </is>
       </c>
       <c r="C807" t="n">
-        <v>0.091</v>
+        <v>0.055</v>
       </c>
       <c r="D807" t="inlineStr">
         <is>
@@ -16527,7 +16519,7 @@
         </is>
       </c>
       <c r="C808" t="n">
-        <v>0.091</v>
+        <v>0.055</v>
       </c>
       <c r="D808" t="inlineStr">
         <is>
@@ -16547,7 +16539,7 @@
         </is>
       </c>
       <c r="C809" t="n">
-        <v>0.015</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="D809" t="inlineStr">
         <is>
@@ -16567,7 +16559,7 @@
         </is>
       </c>
       <c r="C810" t="n">
-        <v>0.024</v>
+        <v>0.032</v>
       </c>
       <c r="D810" t="inlineStr">
         <is>
@@ -16587,7 +16579,7 @@
         </is>
       </c>
       <c r="C811" t="n">
-        <v>0.091</v>
+        <v>0.055</v>
       </c>
       <c r="D811" t="inlineStr">
         <is>
@@ -16607,7 +16599,7 @@
         </is>
       </c>
       <c r="C812" t="n">
-        <v>0.091</v>
+        <v>0.055</v>
       </c>
       <c r="D812" t="inlineStr">
         <is>
@@ -16627,7 +16619,7 @@
         </is>
       </c>
       <c r="C813" t="n">
-        <v>0.018</v>
+        <v>0.024</v>
       </c>
       <c r="D813" t="inlineStr">
         <is>
@@ -16663,7 +16655,7 @@
         </is>
       </c>
       <c r="C815" t="n">
-        <v>0.045</v>
+        <v>0.027</v>
       </c>
       <c r="D815" t="inlineStr">
         <is>
@@ -16683,7 +16675,7 @@
         </is>
       </c>
       <c r="C816" t="n">
-        <v>0.045</v>
+        <v>0.027</v>
       </c>
       <c r="D816" t="inlineStr">
         <is>
@@ -16703,7 +16695,7 @@
         </is>
       </c>
       <c r="C817" t="n">
-        <v>0.045</v>
+        <v>0.027</v>
       </c>
       <c r="D817" t="inlineStr">
         <is>
@@ -20999,7 +20991,7 @@
         </is>
       </c>
       <c r="C1034" t="n">
-        <v>0.045</v>
+        <v>0.027</v>
       </c>
       <c r="D1034" t="inlineStr">
         <is>
@@ -21075,7 +21067,7 @@
         </is>
       </c>
       <c r="C1038" t="n">
-        <v>0.024</v>
+        <v>0.032</v>
       </c>
       <c r="D1038" t="inlineStr">
         <is>
@@ -21095,7 +21087,7 @@
         </is>
       </c>
       <c r="C1039" t="n">
-        <v>0.018</v>
+        <v>0.024</v>
       </c>
       <c r="D1039" t="inlineStr">
         <is>
@@ -21115,7 +21107,7 @@
         </is>
       </c>
       <c r="C1040" t="n">
-        <v>0.045</v>
+        <v>0.027</v>
       </c>
       <c r="D1040" t="inlineStr">
         <is>
@@ -21135,7 +21127,7 @@
         </is>
       </c>
       <c r="C1041" t="n">
-        <v>0.045</v>
+        <v>0.027</v>
       </c>
       <c r="D1041" t="inlineStr">
         <is>
@@ -21155,7 +21147,7 @@
         </is>
       </c>
       <c r="C1042" t="n">
-        <v>0.045</v>
+        <v>0.027</v>
       </c>
       <c r="D1042" t="inlineStr">
         <is>
@@ -21175,7 +21167,7 @@
         </is>
       </c>
       <c r="C1043" t="n">
-        <v>0.045</v>
+        <v>0.027</v>
       </c>
       <c r="D1043" t="inlineStr">
         <is>
@@ -21195,7 +21187,7 @@
         </is>
       </c>
       <c r="C1044" t="n">
-        <v>0.045</v>
+        <v>0.027</v>
       </c>
       <c r="D1044" t="inlineStr">
         <is>
@@ -21215,7 +21207,7 @@
         </is>
       </c>
       <c r="C1045" t="n">
-        <v>0.045</v>
+        <v>0.027</v>
       </c>
       <c r="D1045" t="inlineStr">
         <is>
@@ -21235,7 +21227,7 @@
         </is>
       </c>
       <c r="C1046" t="n">
-        <v>0.045</v>
+        <v>0.027</v>
       </c>
       <c r="D1046" t="inlineStr">
         <is>
@@ -21255,7 +21247,7 @@
         </is>
       </c>
       <c r="C1047" t="n">
-        <v>0.045</v>
+        <v>0.027</v>
       </c>
       <c r="D1047" t="inlineStr">
         <is>
@@ -21275,7 +21267,7 @@
         </is>
       </c>
       <c r="C1048" t="n">
-        <v>0.045</v>
+        <v>0.027</v>
       </c>
       <c r="D1048" t="inlineStr">
         <is>
@@ -21559,15 +21551,15 @@
       </c>
       <c r="B1063" t="inlineStr">
         <is>
-          <t>ELETRICA</t>
+          <t>TOMADAS</t>
         </is>
       </c>
       <c r="C1063" t="n">
-        <v>0.018</v>
+        <v>0.027</v>
       </c>
       <c r="D1063" t="inlineStr">
         <is>
-          <t>[('ELETRICA', 3.0)]</t>
+          <t>[('TOMADAS', 3.0)]</t>
         </is>
       </c>
     </row>
@@ -21579,15 +21571,15 @@
       </c>
       <c r="B1064" t="inlineStr">
         <is>
-          <t>ELETRICA</t>
+          <t>TOMADAS</t>
         </is>
       </c>
       <c r="C1064" t="n">
-        <v>0.018</v>
+        <v>0.027</v>
       </c>
       <c r="D1064" t="inlineStr">
         <is>
-          <t>[('ELETRICA', 3.0)]</t>
+          <t>[('TOMADAS', 3.0)]</t>
         </is>
       </c>
     </row>
@@ -21599,15 +21591,15 @@
       </c>
       <c r="B1065" t="inlineStr">
         <is>
-          <t>ELETRICA</t>
+          <t>TOMADAS</t>
         </is>
       </c>
       <c r="C1065" t="n">
-        <v>0.018</v>
+        <v>0.027</v>
       </c>
       <c r="D1065" t="inlineStr">
         <is>
-          <t>[('ELETRICA', 3.0)]</t>
+          <t>[('TOMADAS', 3.0)]</t>
         </is>
       </c>
     </row>
@@ -21895,7 +21887,7 @@
         </is>
       </c>
       <c r="C1080" t="n">
-        <v>0.018</v>
+        <v>0.024</v>
       </c>
       <c r="D1080" t="inlineStr">
         <is>
@@ -21915,7 +21907,7 @@
         </is>
       </c>
       <c r="C1081" t="n">
-        <v>0.037</v>
+        <v>0.048</v>
       </c>
       <c r="D1081" t="inlineStr">
         <is>
@@ -21935,7 +21927,7 @@
         </is>
       </c>
       <c r="C1082" t="n">
-        <v>0.037</v>
+        <v>0.048</v>
       </c>
       <c r="D1082" t="inlineStr">
         <is>
@@ -21955,7 +21947,7 @@
         </is>
       </c>
       <c r="C1083" t="n">
-        <v>0.037</v>
+        <v>0.048</v>
       </c>
       <c r="D1083" t="inlineStr">
         <is>
@@ -21975,7 +21967,7 @@
         </is>
       </c>
       <c r="C1084" t="n">
-        <v>0.037</v>
+        <v>0.048</v>
       </c>
       <c r="D1084" t="inlineStr">
         <is>
@@ -21995,7 +21987,7 @@
         </is>
       </c>
       <c r="C1085" t="n">
-        <v>0.024</v>
+        <v>0.032</v>
       </c>
       <c r="D1085" t="inlineStr">
         <is>
@@ -22015,7 +22007,7 @@
         </is>
       </c>
       <c r="C1086" t="n">
-        <v>0.018</v>
+        <v>0.024</v>
       </c>
       <c r="D1086" t="inlineStr">
         <is>
@@ -22035,7 +22027,7 @@
         </is>
       </c>
       <c r="C1087" t="n">
-        <v>0.018</v>
+        <v>0.024</v>
       </c>
       <c r="D1087" t="inlineStr">
         <is>
@@ -22055,7 +22047,7 @@
         </is>
       </c>
       <c r="C1088" t="n">
-        <v>0.018</v>
+        <v>0.024</v>
       </c>
       <c r="D1088" t="inlineStr">
         <is>
@@ -22075,7 +22067,7 @@
         </is>
       </c>
       <c r="C1089" t="n">
-        <v>0.018</v>
+        <v>0.024</v>
       </c>
       <c r="D1089" t="inlineStr">
         <is>
@@ -22095,7 +22087,7 @@
         </is>
       </c>
       <c r="C1090" t="n">
-        <v>0.018</v>
+        <v>0.024</v>
       </c>
       <c r="D1090" t="inlineStr">
         <is>
@@ -22115,7 +22107,7 @@
         </is>
       </c>
       <c r="C1091" t="n">
-        <v>0.018</v>
+        <v>0.024</v>
       </c>
       <c r="D1091" t="inlineStr">
         <is>
@@ -22135,7 +22127,7 @@
         </is>
       </c>
       <c r="C1092" t="n">
-        <v>0.018</v>
+        <v>0.024</v>
       </c>
       <c r="D1092" t="inlineStr">
         <is>
@@ -22155,7 +22147,7 @@
         </is>
       </c>
       <c r="C1093" t="n">
-        <v>0.018</v>
+        <v>0.024</v>
       </c>
       <c r="D1093" t="inlineStr">
         <is>
@@ -22175,7 +22167,7 @@
         </is>
       </c>
       <c r="C1094" t="n">
-        <v>0.018</v>
+        <v>0.024</v>
       </c>
       <c r="D1094" t="inlineStr">
         <is>
@@ -22195,7 +22187,7 @@
         </is>
       </c>
       <c r="C1095" t="n">
-        <v>0.018</v>
+        <v>0.024</v>
       </c>
       <c r="D1095" t="inlineStr">
         <is>
@@ -22275,7 +22267,7 @@
         </is>
       </c>
       <c r="C1099" t="n">
-        <v>0.018</v>
+        <v>0.024</v>
       </c>
       <c r="D1099" t="inlineStr">
         <is>
@@ -25903,7 +25895,7 @@
         </is>
       </c>
       <c r="C1282" t="n">
-        <v>0.018</v>
+        <v>0.024</v>
       </c>
       <c r="D1282" t="inlineStr">
         <is>
@@ -27295,15 +27287,15 @@
       </c>
       <c r="B1352" t="inlineStr">
         <is>
-          <t>ELETRICA</t>
+          <t>TOMADAS</t>
         </is>
       </c>
       <c r="C1352" t="n">
-        <v>0.018</v>
+        <v>0.027</v>
       </c>
       <c r="D1352" t="inlineStr">
         <is>
-          <t>[('ELETRICA', 3.0)]</t>
+          <t>[('TOMADAS', 3.0)]</t>
         </is>
       </c>
     </row>
@@ -27315,15 +27307,15 @@
       </c>
       <c r="B1353" t="inlineStr">
         <is>
-          <t>ELETRICA</t>
+          <t>TOMADAS</t>
         </is>
       </c>
       <c r="C1353" t="n">
-        <v>0.018</v>
+        <v>0.027</v>
       </c>
       <c r="D1353" t="inlineStr">
         <is>
-          <t>[('ELETRICA', 3.0)]</t>
+          <t>[('TOMADAS', 3.0)]</t>
         </is>
       </c>
     </row>
@@ -27339,7 +27331,7 @@
         </is>
       </c>
       <c r="C1354" t="n">
-        <v>0.018</v>
+        <v>0.024</v>
       </c>
       <c r="D1354" t="inlineStr">
         <is>
@@ -29543,7 +29535,7 @@
       </c>
       <c r="D1465" t="inlineStr">
         <is>
-          <t>[('PINTURA', 6.0), ('ELETRICA', 0.9333333333333332)]</t>
+          <t>[('PINTURA', 6.0), ('TOMADAS', 0.9333333333333332)]</t>
         </is>
       </c>
     </row>
@@ -29563,7 +29555,7 @@
       </c>
       <c r="D1466" t="inlineStr">
         <is>
-          <t>[('PINTURA', 6.0), ('ELETRICA', 0.9333333333333332)]</t>
+          <t>[('PINTURA', 6.0), ('TOMADAS', 0.9333333333333332)]</t>
         </is>
       </c>
     </row>
@@ -30163,7 +30155,7 @@
         </is>
       </c>
       <c r="C1497" t="n">
-        <v>0.018</v>
+        <v>0.024</v>
       </c>
       <c r="D1497" t="inlineStr">
         <is>
@@ -30183,7 +30175,7 @@
         </is>
       </c>
       <c r="C1498" t="n">
-        <v>0.018</v>
+        <v>0.024</v>
       </c>
       <c r="D1498" t="inlineStr">
         <is>
@@ -30199,15 +30191,15 @@
       </c>
       <c r="B1499" t="inlineStr">
         <is>
-          <t>ELETRICA</t>
+          <t>TOMADAS</t>
         </is>
       </c>
       <c r="C1499" t="n">
-        <v>0.037</v>
+        <v>0.055</v>
       </c>
       <c r="D1499" t="inlineStr">
         <is>
-          <t>[('ELETRICA', 6.0)]</t>
+          <t>[('TOMADAS', 6.0)]</t>
         </is>
       </c>
     </row>
@@ -30219,15 +30211,15 @@
       </c>
       <c r="B1500" t="inlineStr">
         <is>
-          <t>ELETRICA</t>
+          <t>TOMADAS</t>
         </is>
       </c>
       <c r="C1500" t="n">
-        <v>0.037</v>
+        <v>0.055</v>
       </c>
       <c r="D1500" t="inlineStr">
         <is>
-          <t>[('ELETRICA', 6.0)]</t>
+          <t>[('TOMADAS', 6.0)]</t>
         </is>
       </c>
     </row>
@@ -30239,15 +30231,15 @@
       </c>
       <c r="B1501" t="inlineStr">
         <is>
-          <t>ELETRICA</t>
+          <t>TOMADAS</t>
         </is>
       </c>
       <c r="C1501" t="n">
-        <v>0.037</v>
+        <v>0.055</v>
       </c>
       <c r="D1501" t="inlineStr">
         <is>
-          <t>[('ELETRICA', 6.0)]</t>
+          <t>[('TOMADAS', 6.0)]</t>
         </is>
       </c>
     </row>
@@ -30259,15 +30251,15 @@
       </c>
       <c r="B1502" t="inlineStr">
         <is>
-          <t>ELETRICA</t>
+          <t>TOMADAS</t>
         </is>
       </c>
       <c r="C1502" t="n">
-        <v>0.037</v>
+        <v>0.055</v>
       </c>
       <c r="D1502" t="inlineStr">
         <is>
-          <t>[('ELETRICA', 6.0)]</t>
+          <t>[('TOMADAS', 6.0)]</t>
         </is>
       </c>
     </row>
@@ -34023,7 +34015,7 @@
         </is>
       </c>
       <c r="C1690" t="n">
-        <v>0.024</v>
+        <v>0.032</v>
       </c>
       <c r="D1690" t="inlineStr">
         <is>
@@ -35707,7 +35699,7 @@
         </is>
       </c>
       <c r="C1775" t="n">
-        <v>0.024</v>
+        <v>0.032</v>
       </c>
       <c r="D1775" t="inlineStr">
         <is>
@@ -35727,7 +35719,7 @@
         </is>
       </c>
       <c r="C1776" t="n">
-        <v>0.024</v>
+        <v>0.032</v>
       </c>
       <c r="D1776" t="inlineStr">
         <is>
@@ -35747,7 +35739,7 @@
         </is>
       </c>
       <c r="C1777" t="n">
-        <v>0.024</v>
+        <v>0.032</v>
       </c>
       <c r="D1777" t="inlineStr">
         <is>
@@ -35767,7 +35759,7 @@
         </is>
       </c>
       <c r="C1778" t="n">
-        <v>0.018</v>
+        <v>0.024</v>
       </c>
       <c r="D1778" t="inlineStr">
         <is>
@@ -35835,7 +35827,7 @@
         </is>
       </c>
       <c r="C1782" t="n">
-        <v>0.045</v>
+        <v>0.027</v>
       </c>
       <c r="D1782" t="inlineStr">
         <is>
@@ -35855,7 +35847,7 @@
         </is>
       </c>
       <c r="C1783" t="n">
-        <v>0.045</v>
+        <v>0.027</v>
       </c>
       <c r="D1783" t="inlineStr">
         <is>
@@ -35871,15 +35863,15 @@
       </c>
       <c r="B1784" t="inlineStr">
         <is>
-          <t>ELETRICA</t>
+          <t>TOMADAS</t>
         </is>
       </c>
       <c r="C1784" t="n">
-        <v>0.018</v>
+        <v>0.055</v>
       </c>
       <c r="D1784" t="inlineStr">
         <is>
-          <t>[('ELETRICA', 3.0), ('TOMADAS', 3.0)]</t>
+          <t>[('TOMADAS', 6.0)]</t>
         </is>
       </c>
     </row>
@@ -35891,15 +35883,15 @@
       </c>
       <c r="B1785" t="inlineStr">
         <is>
-          <t>ELETRICA</t>
+          <t>TOMADAS</t>
         </is>
       </c>
       <c r="C1785" t="n">
-        <v>0.018</v>
+        <v>0.055</v>
       </c>
       <c r="D1785" t="inlineStr">
         <is>
-          <t>[('ELETRICA', 3.0), ('TOMADAS', 3.0)]</t>
+          <t>[('TOMADAS', 6.0)]</t>
         </is>
       </c>
     </row>
@@ -35911,15 +35903,15 @@
       </c>
       <c r="B1786" t="inlineStr">
         <is>
-          <t>ELETRICA</t>
+          <t>TOMADAS</t>
         </is>
       </c>
       <c r="C1786" t="n">
-        <v>0.018</v>
+        <v>0.055</v>
       </c>
       <c r="D1786" t="inlineStr">
         <is>
-          <t>[('ELETRICA', 3.0), ('TOMADAS', 3.0)]</t>
+          <t>[('TOMADAS', 6.0)]</t>
         </is>
       </c>
     </row>
@@ -35931,15 +35923,15 @@
       </c>
       <c r="B1787" t="inlineStr">
         <is>
-          <t>ELETRICA</t>
+          <t>TOMADAS</t>
         </is>
       </c>
       <c r="C1787" t="n">
-        <v>0.018</v>
+        <v>0.055</v>
       </c>
       <c r="D1787" t="inlineStr">
         <is>
-          <t>[('ELETRICA', 3.0), ('TOMADAS', 3.0)]</t>
+          <t>[('TOMADAS', 6.0)]</t>
         </is>
       </c>
     </row>
@@ -35951,15 +35943,15 @@
       </c>
       <c r="B1788" t="inlineStr">
         <is>
-          <t>ELETRICA</t>
+          <t>TOMADAS</t>
         </is>
       </c>
       <c r="C1788" t="n">
-        <v>0.018</v>
+        <v>0.055</v>
       </c>
       <c r="D1788" t="inlineStr">
         <is>
-          <t>[('ELETRICA', 3.0), ('TOMADAS', 3.0)]</t>
+          <t>[('TOMADAS', 6.0)]</t>
         </is>
       </c>
     </row>
@@ -35975,7 +35967,7 @@
         </is>
       </c>
       <c r="C1789" t="n">
-        <v>0.006</v>
+        <v>0.008</v>
       </c>
       <c r="D1789" t="inlineStr">
         <is>
@@ -35995,7 +35987,7 @@
         </is>
       </c>
       <c r="C1790" t="n">
-        <v>0.006</v>
+        <v>0.008</v>
       </c>
       <c r="D1790" t="inlineStr">
         <is>
@@ -36015,7 +36007,7 @@
         </is>
       </c>
       <c r="C1791" t="n">
-        <v>0.006</v>
+        <v>0.008</v>
       </c>
       <c r="D1791" t="inlineStr">
         <is>
@@ -36035,7 +36027,7 @@
         </is>
       </c>
       <c r="C1792" t="n">
-        <v>0.006</v>
+        <v>0.008</v>
       </c>
       <c r="D1792" t="inlineStr">
         <is>
@@ -36055,7 +36047,7 @@
         </is>
       </c>
       <c r="C1793" t="n">
-        <v>0.006</v>
+        <v>0.008</v>
       </c>
       <c r="D1793" t="inlineStr">
         <is>
@@ -36075,7 +36067,7 @@
         </is>
       </c>
       <c r="C1794" t="n">
-        <v>0.006</v>
+        <v>0.008</v>
       </c>
       <c r="D1794" t="inlineStr">
         <is>
@@ -36091,15 +36083,15 @@
       </c>
       <c r="B1795" t="inlineStr">
         <is>
-          <t>ELETRICA</t>
+          <t>TOMADAS</t>
         </is>
       </c>
       <c r="C1795" t="n">
-        <v>0.006</v>
+        <v>0.008</v>
       </c>
       <c r="D1795" t="inlineStr">
         <is>
-          <t>[('ELETRICA', 0.9333333333333332)]</t>
+          <t>[('TOMADAS', 0.9333333333333332)]</t>
         </is>
       </c>
     </row>
@@ -36111,15 +36103,15 @@
       </c>
       <c r="B1796" t="inlineStr">
         <is>
-          <t>ELETRICA</t>
+          <t>TOMADAS</t>
         </is>
       </c>
       <c r="C1796" t="n">
-        <v>0.006</v>
+        <v>0.008</v>
       </c>
       <c r="D1796" t="inlineStr">
         <is>
-          <t>[('ELETRICA', 0.9333333333333332)]</t>
+          <t>[('TOMADAS', 0.9333333333333332)]</t>
         </is>
       </c>
     </row>
@@ -36131,15 +36123,15 @@
       </c>
       <c r="B1797" t="inlineStr">
         <is>
-          <t>ELETRICA</t>
+          <t>TOMADAS</t>
         </is>
       </c>
       <c r="C1797" t="n">
-        <v>0.006</v>
+        <v>0.008</v>
       </c>
       <c r="D1797" t="inlineStr">
         <is>
-          <t>[('ELETRICA', 0.9333333333333332)]</t>
+          <t>[('TOMADAS', 0.9333333333333332)]</t>
         </is>
       </c>
     </row>
@@ -36151,15 +36143,15 @@
       </c>
       <c r="B1798" t="inlineStr">
         <is>
-          <t>ELETRICA</t>
+          <t>TOMADAS</t>
         </is>
       </c>
       <c r="C1798" t="n">
-        <v>0.006</v>
+        <v>0.008</v>
       </c>
       <c r="D1798" t="inlineStr">
         <is>
-          <t>[('ELETRICA', 0.9333333333333332)]</t>
+          <t>[('TOMADAS', 0.9333333333333332)]</t>
         </is>
       </c>
     </row>
@@ -36171,15 +36163,15 @@
       </c>
       <c r="B1799" t="inlineStr">
         <is>
-          <t>ELETRICA</t>
+          <t>TOMADAS</t>
         </is>
       </c>
       <c r="C1799" t="n">
-        <v>0.006</v>
+        <v>0.008</v>
       </c>
       <c r="D1799" t="inlineStr">
         <is>
-          <t>[('ELETRICA', 0.9333333333333332)]</t>
+          <t>[('TOMADAS', 0.9333333333333332)]</t>
         </is>
       </c>
     </row>
@@ -36195,7 +36187,7 @@
         </is>
       </c>
       <c r="C1800" t="n">
-        <v>0.006</v>
+        <v>0.008</v>
       </c>
       <c r="D1800" t="inlineStr">
         <is>
@@ -37295,7 +37287,7 @@
         </is>
       </c>
       <c r="C1855" t="n">
-        <v>0.037</v>
+        <v>0.048</v>
       </c>
       <c r="D1855" t="inlineStr">
         <is>
@@ -37315,7 +37307,7 @@
         </is>
       </c>
       <c r="C1856" t="n">
-        <v>0.037</v>
+        <v>0.048</v>
       </c>
       <c r="D1856" t="inlineStr">
         <is>
@@ -37335,7 +37327,7 @@
         </is>
       </c>
       <c r="C1857" t="n">
-        <v>0.037</v>
+        <v>0.048</v>
       </c>
       <c r="D1857" t="inlineStr">
         <is>
@@ -37355,7 +37347,7 @@
         </is>
       </c>
       <c r="C1858" t="n">
-        <v>0.037</v>
+        <v>0.048</v>
       </c>
       <c r="D1858" t="inlineStr">
         <is>
@@ -37375,7 +37367,7 @@
         </is>
       </c>
       <c r="C1859" t="n">
-        <v>0.037</v>
+        <v>0.048</v>
       </c>
       <c r="D1859" t="inlineStr">
         <is>
@@ -37395,7 +37387,7 @@
         </is>
       </c>
       <c r="C1860" t="n">
-        <v>0.037</v>
+        <v>0.048</v>
       </c>
       <c r="D1860" t="inlineStr">
         <is>
@@ -37415,7 +37407,7 @@
         </is>
       </c>
       <c r="C1861" t="n">
-        <v>0.037</v>
+        <v>0.048</v>
       </c>
       <c r="D1861" t="inlineStr">
         <is>
@@ -37435,7 +37427,7 @@
         </is>
       </c>
       <c r="C1862" t="n">
-        <v>0.018</v>
+        <v>0.024</v>
       </c>
       <c r="D1862" t="inlineStr">
         <is>
@@ -37455,7 +37447,7 @@
         </is>
       </c>
       <c r="C1863" t="n">
-        <v>0.018</v>
+        <v>0.024</v>
       </c>
       <c r="D1863" t="inlineStr">
         <is>
@@ -37475,7 +37467,7 @@
         </is>
       </c>
       <c r="C1864" t="n">
-        <v>0.018</v>
+        <v>0.024</v>
       </c>
       <c r="D1864" t="inlineStr">
         <is>
@@ -37495,7 +37487,7 @@
         </is>
       </c>
       <c r="C1865" t="n">
-        <v>0.018</v>
+        <v>0.024</v>
       </c>
       <c r="D1865" t="inlineStr">
         <is>
@@ -37991,7 +37983,7 @@
       </c>
       <c r="D1890" t="inlineStr">
         <is>
-          <t>[('PINTURA', 6.0), ('ELETRICA', 0.9333333333333332)]</t>
+          <t>[('PINTURA', 6.0), ('TOMADAS', 0.9333333333333332)]</t>
         </is>
       </c>
     </row>
@@ -38011,7 +38003,7 @@
       </c>
       <c r="D1891" t="inlineStr">
         <is>
-          <t>[('PINTURA', 6.0), ('ELETRICA', 0.9333333333333332)]</t>
+          <t>[('PINTURA', 6.0), ('TOMADAS', 0.9333333333333332)]</t>
         </is>
       </c>
     </row>
@@ -38795,15 +38787,15 @@
       </c>
       <c r="B1931" t="inlineStr">
         <is>
-          <t>ELETRICA</t>
+          <t>TOMADAS</t>
         </is>
       </c>
       <c r="C1931" t="n">
-        <v>0.018</v>
+        <v>0.055</v>
       </c>
       <c r="D1931" t="inlineStr">
         <is>
-          <t>[('ELETRICA', 3.0), ('TOMADAS', 3.0)]</t>
+          <t>[('TOMADAS', 6.0)]</t>
         </is>
       </c>
     </row>
@@ -39023,7 +39015,7 @@
         </is>
       </c>
       <c r="C1943" t="n">
-        <v>0.018</v>
+        <v>0.024</v>
       </c>
       <c r="D1943" t="inlineStr">
         <is>
@@ -39043,7 +39035,7 @@
         </is>
       </c>
       <c r="C1944" t="n">
-        <v>0.018</v>
+        <v>0.024</v>
       </c>
       <c r="D1944" t="inlineStr">
         <is>
@@ -40919,7 +40911,7 @@
         </is>
       </c>
       <c r="C2039" t="n">
-        <v>0.018</v>
+        <v>0.024</v>
       </c>
       <c r="D2039" t="inlineStr">
         <is>
@@ -41007,7 +40999,7 @@
         </is>
       </c>
       <c r="C2044" t="n">
-        <v>0.045</v>
+        <v>0.027</v>
       </c>
       <c r="D2044" t="inlineStr">
         <is>
@@ -41027,7 +41019,7 @@
         </is>
       </c>
       <c r="C2045" t="n">
-        <v>0.045</v>
+        <v>0.027</v>
       </c>
       <c r="D2045" t="inlineStr">
         <is>
@@ -42003,7 +41995,7 @@
         </is>
       </c>
       <c r="C2095" t="n">
-        <v>0.018</v>
+        <v>0.024</v>
       </c>
       <c r="D2095" t="inlineStr">
         <is>
@@ -42063,7 +42055,7 @@
         </is>
       </c>
       <c r="C2098" t="n">
-        <v>0.018</v>
+        <v>0.024</v>
       </c>
       <c r="D2098" t="inlineStr">
         <is>
@@ -42103,7 +42095,7 @@
         </is>
       </c>
       <c r="C2100" t="n">
-        <v>0.024</v>
+        <v>0.032</v>
       </c>
       <c r="D2100" t="inlineStr">
         <is>
@@ -42123,7 +42115,7 @@
         </is>
       </c>
       <c r="C2101" t="n">
-        <v>0.037</v>
+        <v>0.048</v>
       </c>
       <c r="D2101" t="inlineStr">
         <is>
@@ -42143,7 +42135,7 @@
         </is>
       </c>
       <c r="C2102" t="n">
-        <v>0.037</v>
+        <v>0.048</v>
       </c>
       <c r="D2102" t="inlineStr">
         <is>
@@ -42183,7 +42175,7 @@
         </is>
       </c>
       <c r="C2104" t="n">
-        <v>0.037</v>
+        <v>0.048</v>
       </c>
       <c r="D2104" t="inlineStr">
         <is>
@@ -43583,7 +43575,7 @@
         </is>
       </c>
       <c r="C2174" t="n">
-        <v>0.038</v>
+        <v>0.037</v>
       </c>
       <c r="D2174" t="inlineStr">
         <is>
@@ -43603,7 +43595,7 @@
         </is>
       </c>
       <c r="C2175" t="n">
-        <v>0.025</v>
+        <v>0.024</v>
       </c>
       <c r="D2175" t="inlineStr">
         <is>
@@ -43643,7 +43635,7 @@
         </is>
       </c>
       <c r="C2177" t="n">
-        <v>0.025</v>
+        <v>0.024</v>
       </c>
       <c r="D2177" t="inlineStr">
         <is>
@@ -43657,17 +43649,13 @@
           <t>PLUG PLASTILIT RR 1/2 X 1/2 BRANCO</t>
         </is>
       </c>
-      <c r="B2178" t="inlineStr">
-        <is>
-          <t>ELETRICA</t>
-        </is>
-      </c>
+      <c r="B2178" t="inlineStr"/>
       <c r="C2178" t="n">
-        <v>0.018</v>
+        <v>0</v>
       </c>
       <c r="D2178" t="inlineStr">
         <is>
-          <t>[('ELETRICA', 3.0)]</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -47063,7 +47051,7 @@
         </is>
       </c>
       <c r="C2349" t="n">
-        <v>0.018</v>
+        <v>0.024</v>
       </c>
       <c r="D2349" t="inlineStr">
         <is>
@@ -47083,11 +47071,11 @@
         </is>
       </c>
       <c r="C2350" t="n">
-        <v>0.037</v>
+        <v>0.024</v>
       </c>
       <c r="D2350" t="inlineStr">
         <is>
-          <t>[('ELETRICA', 6.0)]</t>
+          <t>[('ELETRICA', 3.0)]</t>
         </is>
       </c>
     </row>
@@ -47255,15 +47243,15 @@
       </c>
       <c r="B2359" t="inlineStr">
         <is>
-          <t>ELETRICA</t>
+          <t>TOMADAS</t>
         </is>
       </c>
       <c r="C2359" t="n">
-        <v>0.018</v>
+        <v>0.027</v>
       </c>
       <c r="D2359" t="inlineStr">
         <is>
-          <t>[('ELETRICA', 3.0)]</t>
+          <t>[('TOMADAS', 3.0)]</t>
         </is>
       </c>
     </row>
@@ -47275,15 +47263,15 @@
       </c>
       <c r="B2360" t="inlineStr">
         <is>
-          <t>ELETRICA</t>
+          <t>TOMADAS</t>
         </is>
       </c>
       <c r="C2360" t="n">
-        <v>0.018</v>
+        <v>0.027</v>
       </c>
       <c r="D2360" t="inlineStr">
         <is>
-          <t>[('ELETRICA', 3.0)]</t>
+          <t>[('TOMADAS', 3.0)]</t>
         </is>
       </c>
     </row>
@@ -48411,7 +48399,7 @@
         </is>
       </c>
       <c r="C2417" t="n">
-        <v>0.014</v>
+        <v>0.008</v>
       </c>
       <c r="D2417" t="inlineStr">
         <is>
@@ -48431,7 +48419,7 @@
         </is>
       </c>
       <c r="C2418" t="n">
-        <v>0.105</v>
+        <v>0.063</v>
       </c>
       <c r="D2418" t="inlineStr">
         <is>
@@ -48451,7 +48439,7 @@
         </is>
       </c>
       <c r="C2419" t="n">
-        <v>0.105</v>
+        <v>0.063</v>
       </c>
       <c r="D2419" t="inlineStr">
         <is>
@@ -48471,7 +48459,7 @@
         </is>
       </c>
       <c r="C2420" t="n">
-        <v>0.12</v>
+        <v>0.07199999999999999</v>
       </c>
       <c r="D2420" t="inlineStr">
         <is>
@@ -48491,7 +48479,7 @@
         </is>
       </c>
       <c r="C2421" t="n">
-        <v>0.105</v>
+        <v>0.063</v>
       </c>
       <c r="D2421" t="inlineStr">
         <is>
@@ -48511,7 +48499,7 @@
         </is>
       </c>
       <c r="C2422" t="n">
-        <v>0.014</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="D2422" t="inlineStr">
         <is>
@@ -48531,7 +48519,7 @@
         </is>
       </c>
       <c r="C2423" t="n">
-        <v>0.018</v>
+        <v>0.024</v>
       </c>
       <c r="D2423" t="inlineStr">
         <is>
@@ -48551,7 +48539,7 @@
         </is>
       </c>
       <c r="C2424" t="n">
-        <v>0.018</v>
+        <v>0.024</v>
       </c>
       <c r="D2424" t="inlineStr">
         <is>
@@ -48571,7 +48559,7 @@
         </is>
       </c>
       <c r="C2425" t="n">
-        <v>0.15</v>
+        <v>0.09</v>
       </c>
       <c r="D2425" t="inlineStr">
         <is>
@@ -48591,7 +48579,7 @@
         </is>
       </c>
       <c r="C2426" t="n">
-        <v>0.015</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="D2426" t="inlineStr">
         <is>
@@ -48611,7 +48599,7 @@
         </is>
       </c>
       <c r="C2427" t="n">
-        <v>0.045</v>
+        <v>0.027</v>
       </c>
       <c r="D2427" t="inlineStr">
         <is>
@@ -48631,7 +48619,7 @@
         </is>
       </c>
       <c r="C2428" t="n">
-        <v>0.045</v>
+        <v>0.027</v>
       </c>
       <c r="D2428" t="inlineStr">
         <is>
@@ -48651,7 +48639,7 @@
         </is>
       </c>
       <c r="C2429" t="n">
-        <v>0.15</v>
+        <v>0.09</v>
       </c>
       <c r="D2429" t="inlineStr">
         <is>
@@ -48671,7 +48659,7 @@
         </is>
       </c>
       <c r="C2430" t="n">
-        <v>0.12</v>
+        <v>0.07199999999999999</v>
       </c>
       <c r="D2430" t="inlineStr">
         <is>
@@ -48691,7 +48679,7 @@
         </is>
       </c>
       <c r="C2431" t="n">
-        <v>0.015</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="D2431" t="inlineStr">
         <is>
@@ -48851,7 +48839,7 @@
         </is>
       </c>
       <c r="C2439" t="n">
-        <v>0.037</v>
+        <v>0.048</v>
       </c>
       <c r="D2439" t="inlineStr">
         <is>
@@ -48891,7 +48879,7 @@
         </is>
       </c>
       <c r="C2441" t="n">
-        <v>0.014</v>
+        <v>0.008</v>
       </c>
       <c r="D2441" t="inlineStr">
         <is>
@@ -48927,7 +48915,7 @@
         </is>
       </c>
       <c r="C2443" t="n">
-        <v>0.018</v>
+        <v>0.024</v>
       </c>
       <c r="D2443" t="inlineStr">
         <is>
@@ -48947,7 +48935,7 @@
         </is>
       </c>
       <c r="C2444" t="n">
-        <v>0.018</v>
+        <v>0.024</v>
       </c>
       <c r="D2444" t="inlineStr">
         <is>
@@ -48967,7 +48955,7 @@
         </is>
       </c>
       <c r="C2445" t="n">
-        <v>0.018</v>
+        <v>0.024</v>
       </c>
       <c r="D2445" t="inlineStr">
         <is>
@@ -48987,7 +48975,7 @@
         </is>
       </c>
       <c r="C2446" t="n">
-        <v>0.018</v>
+        <v>0.024</v>
       </c>
       <c r="D2446" t="inlineStr">
         <is>
@@ -49007,7 +48995,7 @@
         </is>
       </c>
       <c r="C2447" t="n">
-        <v>0.018</v>
+        <v>0.024</v>
       </c>
       <c r="D2447" t="inlineStr">
         <is>
@@ -49027,7 +49015,7 @@
         </is>
       </c>
       <c r="C2448" t="n">
-        <v>0.018</v>
+        <v>0.024</v>
       </c>
       <c r="D2448" t="inlineStr">
         <is>
@@ -49047,7 +49035,7 @@
         </is>
       </c>
       <c r="C2449" t="n">
-        <v>0.018</v>
+        <v>0.024</v>
       </c>
       <c r="D2449" t="inlineStr">
         <is>
@@ -49067,7 +49055,7 @@
         </is>
       </c>
       <c r="C2450" t="n">
-        <v>0.018</v>
+        <v>0.024</v>
       </c>
       <c r="D2450" t="inlineStr">
         <is>
@@ -49087,7 +49075,7 @@
         </is>
       </c>
       <c r="C2451" t="n">
-        <v>0.018</v>
+        <v>0.024</v>
       </c>
       <c r="D2451" t="inlineStr">
         <is>
@@ -49107,7 +49095,7 @@
         </is>
       </c>
       <c r="C2452" t="n">
-        <v>0.018</v>
+        <v>0.024</v>
       </c>
       <c r="D2452" t="inlineStr">
         <is>
@@ -49127,7 +49115,7 @@
         </is>
       </c>
       <c r="C2453" t="n">
-        <v>0.018</v>
+        <v>0.024</v>
       </c>
       <c r="D2453" t="inlineStr">
         <is>
@@ -49743,7 +49731,7 @@
         </is>
       </c>
       <c r="C2484" t="n">
-        <v>0.018</v>
+        <v>0.024</v>
       </c>
       <c r="D2484" t="inlineStr">
         <is>
@@ -49915,7 +49903,7 @@
         </is>
       </c>
       <c r="C2493" t="n">
-        <v>0.037</v>
+        <v>0.048</v>
       </c>
       <c r="D2493" t="inlineStr">
         <is>
@@ -49967,7 +49955,7 @@
         </is>
       </c>
       <c r="C2496" t="n">
-        <v>0.045</v>
+        <v>0.027</v>
       </c>
       <c r="D2496" t="inlineStr">
         <is>
@@ -49987,7 +49975,7 @@
         </is>
       </c>
       <c r="C2497" t="n">
-        <v>0.045</v>
+        <v>0.027</v>
       </c>
       <c r="D2497" t="inlineStr">
         <is>
@@ -50067,15 +50055,15 @@
       </c>
       <c r="B2502" t="inlineStr">
         <is>
-          <t>ELETRICA</t>
+          <t>TOMADAS</t>
         </is>
       </c>
       <c r="C2502" t="n">
-        <v>0.018</v>
+        <v>0.027</v>
       </c>
       <c r="D2502" t="inlineStr">
         <is>
-          <t>[('ELETRICA', 3.0)]</t>
+          <t>[('TOMADAS', 3.0)]</t>
         </is>
       </c>
     </row>
@@ -50087,15 +50075,15 @@
       </c>
       <c r="B2503" t="inlineStr">
         <is>
-          <t>ELETRICA</t>
+          <t>TOMADAS</t>
         </is>
       </c>
       <c r="C2503" t="n">
-        <v>0.018</v>
+        <v>0.027</v>
       </c>
       <c r="D2503" t="inlineStr">
         <is>
-          <t>[('ELETRICA', 3.0)]</t>
+          <t>[('TOMADAS', 3.0)]</t>
         </is>
       </c>
     </row>
@@ -50107,15 +50095,15 @@
       </c>
       <c r="B2504" t="inlineStr">
         <is>
-          <t>ELETRICA</t>
+          <t>TOMADAS</t>
         </is>
       </c>
       <c r="C2504" t="n">
-        <v>0.018</v>
+        <v>0.027</v>
       </c>
       <c r="D2504" t="inlineStr">
         <is>
-          <t>[('ELETRICA', 3.0)]</t>
+          <t>[('TOMADAS', 3.0)]</t>
         </is>
       </c>
     </row>
@@ -50127,15 +50115,15 @@
       </c>
       <c r="B2505" t="inlineStr">
         <is>
-          <t>ELETRICA</t>
+          <t>TOMADAS</t>
         </is>
       </c>
       <c r="C2505" t="n">
-        <v>0.018</v>
+        <v>0.027</v>
       </c>
       <c r="D2505" t="inlineStr">
         <is>
-          <t>[('ELETRICA', 3.0)]</t>
+          <t>[('TOMADAS', 3.0)]</t>
         </is>
       </c>
     </row>
@@ -50171,7 +50159,7 @@
         </is>
       </c>
       <c r="C2507" t="n">
-        <v>0.018</v>
+        <v>0.024</v>
       </c>
       <c r="D2507" t="inlineStr">
         <is>
@@ -50187,15 +50175,15 @@
       </c>
       <c r="B2508" t="inlineStr">
         <is>
-          <t>ELETRICA</t>
+          <t>TOMADAS</t>
         </is>
       </c>
       <c r="C2508" t="n">
-        <v>0.018</v>
+        <v>0.027</v>
       </c>
       <c r="D2508" t="inlineStr">
         <is>
-          <t>[('ELETRICA', 3.0)]</t>
+          <t>[('TOMADAS', 3.0)]</t>
         </is>
       </c>
     </row>
@@ -50211,7 +50199,7 @@
         </is>
       </c>
       <c r="C2509" t="n">
-        <v>0.018</v>
+        <v>0.024</v>
       </c>
       <c r="D2509" t="inlineStr">
         <is>
@@ -50231,7 +50219,7 @@
         </is>
       </c>
       <c r="C2510" t="n">
-        <v>0.018</v>
+        <v>0.024</v>
       </c>
       <c r="D2510" t="inlineStr">
         <is>
@@ -50331,7 +50319,7 @@
         </is>
       </c>
       <c r="C2515" t="n">
-        <v>0.037</v>
+        <v>0.048</v>
       </c>
       <c r="D2515" t="inlineStr">
         <is>
@@ -50351,7 +50339,7 @@
         </is>
       </c>
       <c r="C2516" t="n">
-        <v>0.037</v>
+        <v>0.048</v>
       </c>
       <c r="D2516" t="inlineStr">
         <is>
@@ -50371,7 +50359,7 @@
         </is>
       </c>
       <c r="C2517" t="n">
-        <v>0.024</v>
+        <v>0.032</v>
       </c>
       <c r="D2517" t="inlineStr">
         <is>
@@ -50391,7 +50379,7 @@
         </is>
       </c>
       <c r="C2518" t="n">
-        <v>0.024</v>
+        <v>0.032</v>
       </c>
       <c r="D2518" t="inlineStr">
         <is>
@@ -50411,7 +50399,7 @@
         </is>
       </c>
       <c r="C2519" t="n">
-        <v>0.037</v>
+        <v>0.048</v>
       </c>
       <c r="D2519" t="inlineStr">
         <is>
@@ -50807,7 +50795,7 @@
         </is>
       </c>
       <c r="C2539" t="n">
-        <v>0.024</v>
+        <v>0.032</v>
       </c>
       <c r="D2539" t="inlineStr">
         <is>
@@ -50827,7 +50815,7 @@
         </is>
       </c>
       <c r="C2540" t="n">
-        <v>0.024</v>
+        <v>0.032</v>
       </c>
       <c r="D2540" t="inlineStr">
         <is>
@@ -50847,7 +50835,7 @@
         </is>
       </c>
       <c r="C2541" t="n">
-        <v>0.024</v>
+        <v>0.032</v>
       </c>
       <c r="D2541" t="inlineStr">
         <is>
@@ -50867,7 +50855,7 @@
         </is>
       </c>
       <c r="C2542" t="n">
-        <v>0.024</v>
+        <v>0.032</v>
       </c>
       <c r="D2542" t="inlineStr">
         <is>
@@ -50887,7 +50875,7 @@
         </is>
       </c>
       <c r="C2543" t="n">
-        <v>0.011</v>
+        <v>0.015</v>
       </c>
       <c r="D2543" t="inlineStr">
         <is>
@@ -51103,15 +51091,15 @@
       </c>
       <c r="B2554" t="inlineStr">
         <is>
-          <t>ELETRICA</t>
+          <t>EPI</t>
         </is>
       </c>
       <c r="C2554" t="n">
-        <v>0.018</v>
+        <v>0.048</v>
       </c>
       <c r="D2554" t="inlineStr">
         <is>
-          <t>[('ELETRICA', 3.0), ('EPI', 3.0)]</t>
+          <t>[('EPI', 3.0)]</t>
         </is>
       </c>
     </row>
@@ -53259,15 +53247,15 @@
       </c>
       <c r="B2662" t="inlineStr">
         <is>
-          <t>ELETRICA</t>
+          <t>CONEXOES AGUA</t>
         </is>
       </c>
       <c r="C2662" t="n">
-        <v>0.018</v>
+        <v>0.019</v>
       </c>
       <c r="D2662" t="inlineStr">
         <is>
-          <t>[('ELETRICA', 3.0), ('CONEXOES AGUA', 3.0)]</t>
+          <t>[('CONEXOES AGUA', 3.0)]</t>
         </is>
       </c>
     </row>
@@ -53279,15 +53267,15 @@
       </c>
       <c r="B2663" t="inlineStr">
         <is>
-          <t>ELETRICA</t>
+          <t>CONEXOES AGUA</t>
         </is>
       </c>
       <c r="C2663" t="n">
-        <v>0.018</v>
+        <v>0.019</v>
       </c>
       <c r="D2663" t="inlineStr">
         <is>
-          <t>[('ELETRICA', 3.0), ('CONEXOES AGUA', 3.0)]</t>
+          <t>[('CONEXOES AGUA', 3.0)]</t>
         </is>
       </c>
     </row>
@@ -53363,7 +53351,7 @@
         </is>
       </c>
       <c r="C2667" t="n">
-        <v>0.045</v>
+        <v>0.027</v>
       </c>
       <c r="D2667" t="inlineStr">
         <is>
@@ -53383,7 +53371,7 @@
         </is>
       </c>
       <c r="C2668" t="n">
-        <v>0.091</v>
+        <v>0.055</v>
       </c>
       <c r="D2668" t="inlineStr">
         <is>
@@ -53403,7 +53391,7 @@
         </is>
       </c>
       <c r="C2669" t="n">
-        <v>0.045</v>
+        <v>0.027</v>
       </c>
       <c r="D2669" t="inlineStr">
         <is>
@@ -53423,7 +53411,7 @@
         </is>
       </c>
       <c r="C2670" t="n">
-        <v>0.091</v>
+        <v>0.055</v>
       </c>
       <c r="D2670" t="inlineStr">
         <is>
@@ -53443,7 +53431,7 @@
         </is>
       </c>
       <c r="C2671" t="n">
-        <v>0.091</v>
+        <v>0.055</v>
       </c>
       <c r="D2671" t="inlineStr">
         <is>
@@ -53463,7 +53451,7 @@
         </is>
       </c>
       <c r="C2672" t="n">
-        <v>0.061</v>
+        <v>0.036</v>
       </c>
       <c r="D2672" t="inlineStr">
         <is>
@@ -53483,7 +53471,7 @@
         </is>
       </c>
       <c r="C2673" t="n">
-        <v>0.045</v>
+        <v>0.027</v>
       </c>
       <c r="D2673" t="inlineStr">
         <is>
@@ -53503,7 +53491,7 @@
         </is>
       </c>
       <c r="C2674" t="n">
-        <v>0.045</v>
+        <v>0.027</v>
       </c>
       <c r="D2674" t="inlineStr">
         <is>
@@ -53523,7 +53511,7 @@
         </is>
       </c>
       <c r="C2675" t="n">
-        <v>0.045</v>
+        <v>0.027</v>
       </c>
       <c r="D2675" t="inlineStr">
         <is>
@@ -53735,7 +53723,7 @@
         </is>
       </c>
       <c r="C2686" t="n">
-        <v>0.018</v>
+        <v>0.024</v>
       </c>
       <c r="D2686" t="inlineStr">
         <is>
@@ -54727,7 +54715,7 @@
         </is>
       </c>
       <c r="C2736" t="n">
-        <v>0.018</v>
+        <v>0.024</v>
       </c>
       <c r="D2736" t="inlineStr">
         <is>
@@ -54747,7 +54735,7 @@
         </is>
       </c>
       <c r="C2737" t="n">
-        <v>0.018</v>
+        <v>0.024</v>
       </c>
       <c r="D2737" t="inlineStr">
         <is>
@@ -54767,7 +54755,7 @@
         </is>
       </c>
       <c r="C2738" t="n">
-        <v>0.018</v>
+        <v>0.024</v>
       </c>
       <c r="D2738" t="inlineStr">
         <is>
@@ -54787,7 +54775,7 @@
         </is>
       </c>
       <c r="C2739" t="n">
-        <v>0.018</v>
+        <v>0.024</v>
       </c>
       <c r="D2739" t="inlineStr">
         <is>
@@ -54807,7 +54795,7 @@
         </is>
       </c>
       <c r="C2740" t="n">
-        <v>0.018</v>
+        <v>0.024</v>
       </c>
       <c r="D2740" t="inlineStr">
         <is>
@@ -54827,7 +54815,7 @@
         </is>
       </c>
       <c r="C2741" t="n">
-        <v>0.018</v>
+        <v>0.024</v>
       </c>
       <c r="D2741" t="inlineStr">
         <is>
@@ -54847,7 +54835,7 @@
         </is>
       </c>
       <c r="C2742" t="n">
-        <v>0.018</v>
+        <v>0.024</v>
       </c>
       <c r="D2742" t="inlineStr">
         <is>
@@ -54867,7 +54855,7 @@
         </is>
       </c>
       <c r="C2743" t="n">
-        <v>0.018</v>
+        <v>0.024</v>
       </c>
       <c r="D2743" t="inlineStr">
         <is>
@@ -54887,7 +54875,7 @@
         </is>
       </c>
       <c r="C2744" t="n">
-        <v>0.018</v>
+        <v>0.024</v>
       </c>
       <c r="D2744" t="inlineStr">
         <is>
@@ -54907,7 +54895,7 @@
         </is>
       </c>
       <c r="C2745" t="n">
-        <v>0.018</v>
+        <v>0.024</v>
       </c>
       <c r="D2745" t="inlineStr">
         <is>
@@ -54927,7 +54915,7 @@
         </is>
       </c>
       <c r="C2746" t="n">
-        <v>0.018</v>
+        <v>0.024</v>
       </c>
       <c r="D2746" t="inlineStr">
         <is>
@@ -54947,7 +54935,7 @@
         </is>
       </c>
       <c r="C2747" t="n">
-        <v>0.018</v>
+        <v>0.024</v>
       </c>
       <c r="D2747" t="inlineStr">
         <is>
@@ -54967,7 +54955,7 @@
         </is>
       </c>
       <c r="C2748" t="n">
-        <v>0.037</v>
+        <v>0.048</v>
       </c>
       <c r="D2748" t="inlineStr">
         <is>
@@ -54987,7 +54975,7 @@
         </is>
       </c>
       <c r="C2749" t="n">
-        <v>0.018</v>
+        <v>0.024</v>
       </c>
       <c r="D2749" t="inlineStr">
         <is>
@@ -55607,7 +55595,7 @@
         </is>
       </c>
       <c r="C2780" t="n">
-        <v>0.045</v>
+        <v>0.027</v>
       </c>
       <c r="D2780" t="inlineStr">
         <is>
@@ -55647,7 +55635,7 @@
         </is>
       </c>
       <c r="C2782" t="n">
-        <v>0.045</v>
+        <v>0.027</v>
       </c>
       <c r="D2782" t="inlineStr">
         <is>
@@ -55667,7 +55655,7 @@
         </is>
       </c>
       <c r="C2783" t="n">
-        <v>0.037</v>
+        <v>0.048</v>
       </c>
       <c r="D2783" t="inlineStr">
         <is>
@@ -55687,7 +55675,7 @@
         </is>
       </c>
       <c r="C2784" t="n">
-        <v>0.045</v>
+        <v>0.027</v>
       </c>
       <c r="D2784" t="inlineStr">
         <is>
@@ -55707,7 +55695,7 @@
         </is>
       </c>
       <c r="C2785" t="n">
-        <v>0.045</v>
+        <v>0.027</v>
       </c>
       <c r="D2785" t="inlineStr">
         <is>
@@ -55727,7 +55715,7 @@
         </is>
       </c>
       <c r="C2786" t="n">
-        <v>0.045</v>
+        <v>0.027</v>
       </c>
       <c r="D2786" t="inlineStr">
         <is>
@@ -55747,7 +55735,7 @@
         </is>
       </c>
       <c r="C2787" t="n">
-        <v>0.045</v>
+        <v>0.027</v>
       </c>
       <c r="D2787" t="inlineStr">
         <is>
@@ -55783,7 +55771,7 @@
         </is>
       </c>
       <c r="C2789" t="n">
-        <v>0.045</v>
+        <v>0.027</v>
       </c>
       <c r="D2789" t="inlineStr">
         <is>
@@ -55803,7 +55791,7 @@
         </is>
       </c>
       <c r="C2790" t="n">
-        <v>0.045</v>
+        <v>0.027</v>
       </c>
       <c r="D2790" t="inlineStr">
         <is>
@@ -55823,7 +55811,7 @@
         </is>
       </c>
       <c r="C2791" t="n">
-        <v>0.045</v>
+        <v>0.027</v>
       </c>
       <c r="D2791" t="inlineStr">
         <is>
@@ -55843,7 +55831,7 @@
         </is>
       </c>
       <c r="C2792" t="n">
-        <v>0.024</v>
+        <v>0.032</v>
       </c>
       <c r="D2792" t="inlineStr">
         <is>
@@ -55863,7 +55851,7 @@
         </is>
       </c>
       <c r="C2793" t="n">
-        <v>0.045</v>
+        <v>0.027</v>
       </c>
       <c r="D2793" t="inlineStr">
         <is>
@@ -55899,7 +55887,7 @@
         </is>
       </c>
       <c r="C2795" t="n">
-        <v>0.045</v>
+        <v>0.027</v>
       </c>
       <c r="D2795" t="inlineStr">
         <is>
@@ -55919,7 +55907,7 @@
         </is>
       </c>
       <c r="C2796" t="n">
-        <v>0.015</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="D2796" t="inlineStr">
         <is>
@@ -55939,7 +55927,7 @@
         </is>
       </c>
       <c r="C2797" t="n">
-        <v>0.015</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="D2797" t="inlineStr">
         <is>
@@ -55975,7 +55963,7 @@
         </is>
       </c>
       <c r="C2799" t="n">
-        <v>0.024</v>
+        <v>0.032</v>
       </c>
       <c r="D2799" t="inlineStr">
         <is>
@@ -55991,15 +55979,15 @@
       </c>
       <c r="B2800" t="inlineStr">
         <is>
-          <t>ELETRICA</t>
+          <t>TOMADAS</t>
         </is>
       </c>
       <c r="C2800" t="n">
-        <v>0.018</v>
+        <v>0.027</v>
       </c>
       <c r="D2800" t="inlineStr">
         <is>
-          <t>[('ELETRICA', 3.0)]</t>
+          <t>[('TOMADAS', 3.0)]</t>
         </is>
       </c>
     </row>
@@ -56015,7 +56003,7 @@
         </is>
       </c>
       <c r="C2801" t="n">
-        <v>0.018</v>
+        <v>0.024</v>
       </c>
       <c r="D2801" t="inlineStr">
         <is>
@@ -56435,7 +56423,7 @@
         </is>
       </c>
       <c r="C2822" t="n">
-        <v>0.061</v>
+        <v>0.036</v>
       </c>
       <c r="D2822" t="inlineStr">
         <is>
@@ -56451,15 +56439,15 @@
       </c>
       <c r="B2823" t="inlineStr">
         <is>
-          <t>ELETRICA</t>
+          <t>TOMADAS</t>
         </is>
       </c>
       <c r="C2823" t="n">
-        <v>0.018</v>
+        <v>0.027</v>
       </c>
       <c r="D2823" t="inlineStr">
         <is>
-          <t>[('ELETRICA', 3.0)]</t>
+          <t>[('TOMADAS', 3.0)]</t>
         </is>
       </c>
     </row>
@@ -56471,15 +56459,15 @@
       </c>
       <c r="B2824" t="inlineStr">
         <is>
-          <t>ELETRICA</t>
+          <t>TOMADAS</t>
         </is>
       </c>
       <c r="C2824" t="n">
-        <v>0.018</v>
+        <v>0.027</v>
       </c>
       <c r="D2824" t="inlineStr">
         <is>
-          <t>[('ELETRICA', 3.0)]</t>
+          <t>[('TOMADAS', 3.0)]</t>
         </is>
       </c>
     </row>
@@ -56491,15 +56479,15 @@
       </c>
       <c r="B2825" t="inlineStr">
         <is>
-          <t>ELETRICA</t>
+          <t>TOMADAS</t>
         </is>
       </c>
       <c r="C2825" t="n">
-        <v>0.018</v>
+        <v>0.027</v>
       </c>
       <c r="D2825" t="inlineStr">
         <is>
-          <t>[('ELETRICA', 3.0)]</t>
+          <t>[('TOMADAS', 3.0)]</t>
         </is>
       </c>
     </row>
@@ -57135,7 +57123,7 @@
         </is>
       </c>
       <c r="C2857" t="n">
-        <v>0.037</v>
+        <v>0.048</v>
       </c>
       <c r="D2857" t="inlineStr">
         <is>
@@ -57551,15 +57539,15 @@
       </c>
       <c r="B2878" t="inlineStr">
         <is>
-          <t>ELETRICA</t>
+          <t>TOMADAS</t>
         </is>
       </c>
       <c r="C2878" t="n">
-        <v>0.006</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="D2878" t="inlineStr">
         <is>
-          <t>[('ELETRICA', 0.96875)]</t>
+          <t>[('TOMADAS', 0.96875)]</t>
         </is>
       </c>
     </row>
@@ -57571,15 +57559,15 @@
       </c>
       <c r="B2879" t="inlineStr">
         <is>
-          <t>ELETRICA</t>
+          <t>TOMADAS</t>
         </is>
       </c>
       <c r="C2879" t="n">
-        <v>0.018</v>
+        <v>0.027</v>
       </c>
       <c r="D2879" t="inlineStr">
         <is>
-          <t>[('ELETRICA', 3.0)]</t>
+          <t>[('TOMADAS', 3.0)]</t>
         </is>
       </c>
     </row>
@@ -57591,15 +57579,15 @@
       </c>
       <c r="B2880" t="inlineStr">
         <is>
-          <t>ELETRICA</t>
+          <t>TOMADAS</t>
         </is>
       </c>
       <c r="C2880" t="n">
-        <v>0.018</v>
+        <v>0.055</v>
       </c>
       <c r="D2880" t="inlineStr">
         <is>
-          <t>[('ELETRICA', 3.0), ('TOMADAS', 3.0)]</t>
+          <t>[('TOMADAS', 6.0)]</t>
         </is>
       </c>
     </row>
@@ -57611,15 +57599,15 @@
       </c>
       <c r="B2881" t="inlineStr">
         <is>
-          <t>ELETRICA</t>
+          <t>TOMADAS</t>
         </is>
       </c>
       <c r="C2881" t="n">
-        <v>0.018</v>
+        <v>0.055</v>
       </c>
       <c r="D2881" t="inlineStr">
         <is>
-          <t>[('ELETRICA', 3.0), ('TOMADAS', 3.0)]</t>
+          <t>[('TOMADAS', 6.0)]</t>
         </is>
       </c>
     </row>
@@ -57631,15 +57619,15 @@
       </c>
       <c r="B2882" t="inlineStr">
         <is>
-          <t>ELETRICA</t>
+          <t>TOMADAS</t>
         </is>
       </c>
       <c r="C2882" t="n">
-        <v>0.018</v>
+        <v>0.055</v>
       </c>
       <c r="D2882" t="inlineStr">
         <is>
-          <t>[('ELETRICA', 3.0), ('TOMADAS', 3.0)]</t>
+          <t>[('TOMADAS', 6.0)]</t>
         </is>
       </c>
     </row>
@@ -57655,7 +57643,7 @@
         </is>
       </c>
       <c r="C2883" t="n">
-        <v>0.018</v>
+        <v>0.024</v>
       </c>
       <c r="D2883" t="inlineStr">
         <is>
@@ -57675,7 +57663,7 @@
         </is>
       </c>
       <c r="C2884" t="n">
-        <v>0.015</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="D2884" t="inlineStr">
         <is>
@@ -57695,7 +57683,7 @@
         </is>
       </c>
       <c r="C2885" t="n">
-        <v>0.045</v>
+        <v>0.027</v>
       </c>
       <c r="D2885" t="inlineStr">
         <is>
@@ -57735,7 +57723,7 @@
         </is>
       </c>
       <c r="C2887" t="n">
-        <v>0.018</v>
+        <v>0.024</v>
       </c>
       <c r="D2887" t="inlineStr">
         <is>
@@ -57755,7 +57743,7 @@
         </is>
       </c>
       <c r="C2888" t="n">
-        <v>0.018</v>
+        <v>0.024</v>
       </c>
       <c r="D2888" t="inlineStr">
         <is>
@@ -57775,7 +57763,7 @@
         </is>
       </c>
       <c r="C2889" t="n">
-        <v>0.018</v>
+        <v>0.024</v>
       </c>
       <c r="D2889" t="inlineStr">
         <is>
@@ -57795,7 +57783,7 @@
         </is>
       </c>
       <c r="C2890" t="n">
-        <v>0.045</v>
+        <v>0.027</v>
       </c>
       <c r="D2890" t="inlineStr">
         <is>
@@ -58469,17 +58457,13 @@
           <t>PLUG FORTLEV RR 1/2 X 1/2</t>
         </is>
       </c>
-      <c r="B2924" t="inlineStr">
-        <is>
-          <t>ELETRICA</t>
-        </is>
-      </c>
+      <c r="B2924" t="inlineStr"/>
       <c r="C2924" t="n">
-        <v>0.018</v>
+        <v>0</v>
       </c>
       <c r="D2924" t="inlineStr">
         <is>
-          <t>[('ELETRICA', 3.0)]</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -58577,17 +58561,13 @@
           <t>PLUG FORTLEV RR 3/4 X 3/4</t>
         </is>
       </c>
-      <c r="B2930" t="inlineStr">
-        <is>
-          <t>ELETRICA</t>
-        </is>
-      </c>
+      <c r="B2930" t="inlineStr"/>
       <c r="C2930" t="n">
-        <v>0.018</v>
+        <v>0</v>
       </c>
       <c r="D2930" t="inlineStr">
         <is>
-          <t>[('ELETRICA', 3.0)]</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -60399,7 +60379,7 @@
         </is>
       </c>
       <c r="C3021" t="n">
-        <v>0.018</v>
+        <v>0.024</v>
       </c>
       <c r="D3021" t="inlineStr">
         <is>
@@ -60419,7 +60399,7 @@
         </is>
       </c>
       <c r="C3022" t="n">
-        <v>0.018</v>
+        <v>0.024</v>
       </c>
       <c r="D3022" t="inlineStr">
         <is>
@@ -60439,7 +60419,7 @@
         </is>
       </c>
       <c r="C3023" t="n">
-        <v>0.018</v>
+        <v>0.024</v>
       </c>
       <c r="D3023" t="inlineStr">
         <is>
@@ -60459,7 +60439,7 @@
         </is>
       </c>
       <c r="C3024" t="n">
-        <v>0.018</v>
+        <v>0.024</v>
       </c>
       <c r="D3024" t="inlineStr">
         <is>
@@ -60479,7 +60459,7 @@
         </is>
       </c>
       <c r="C3025" t="n">
-        <v>0.018</v>
+        <v>0.024</v>
       </c>
       <c r="D3025" t="inlineStr">
         <is>
@@ -60499,7 +60479,7 @@
         </is>
       </c>
       <c r="C3026" t="n">
-        <v>0.018</v>
+        <v>0.024</v>
       </c>
       <c r="D3026" t="inlineStr">
         <is>
@@ -60519,7 +60499,7 @@
         </is>
       </c>
       <c r="C3027" t="n">
-        <v>0.018</v>
+        <v>0.024</v>
       </c>
       <c r="D3027" t="inlineStr">
         <is>
@@ -60539,7 +60519,7 @@
         </is>
       </c>
       <c r="C3028" t="n">
-        <v>0.018</v>
+        <v>0.024</v>
       </c>
       <c r="D3028" t="inlineStr">
         <is>
@@ -60559,7 +60539,7 @@
         </is>
       </c>
       <c r="C3029" t="n">
-        <v>0.018</v>
+        <v>0.024</v>
       </c>
       <c r="D3029" t="inlineStr">
         <is>
@@ -60579,7 +60559,7 @@
         </is>
       </c>
       <c r="C3030" t="n">
-        <v>0.018</v>
+        <v>0.024</v>
       </c>
       <c r="D3030" t="inlineStr">
         <is>
@@ -60631,7 +60611,7 @@
         </is>
       </c>
       <c r="C3033" t="n">
-        <v>0.018</v>
+        <v>0.024</v>
       </c>
       <c r="D3033" t="inlineStr">
         <is>
@@ -60651,7 +60631,7 @@
         </is>
       </c>
       <c r="C3034" t="n">
-        <v>0.024</v>
+        <v>0.032</v>
       </c>
       <c r="D3034" t="inlineStr">
         <is>
@@ -60671,7 +60651,7 @@
         </is>
       </c>
       <c r="C3035" t="n">
-        <v>0.018</v>
+        <v>0.024</v>
       </c>
       <c r="D3035" t="inlineStr">
         <is>
@@ -60691,7 +60671,7 @@
         </is>
       </c>
       <c r="C3036" t="n">
-        <v>0.006</v>
+        <v>0.007</v>
       </c>
       <c r="D3036" t="inlineStr">
         <is>
@@ -60711,7 +60691,7 @@
         </is>
       </c>
       <c r="C3037" t="n">
-        <v>0.006</v>
+        <v>0.007</v>
       </c>
       <c r="D3037" t="inlineStr">
         <is>
@@ -60863,15 +60843,15 @@
       </c>
       <c r="B3045" t="inlineStr">
         <is>
-          <t>ELETRICA</t>
+          <t>FERRAMENTAS MANUAIS</t>
         </is>
       </c>
       <c r="C3045" t="n">
-        <v>0.018</v>
+        <v>0.02</v>
       </c>
       <c r="D3045" t="inlineStr">
         <is>
-          <t>[('ELETRICA', 3.0), ('FERRAMENTAS MANUAIS', 3.0)]</t>
+          <t>[('FERRAMENTAS MANUAIS', 3.0), ('TOMADAS', 3.0)]</t>
         </is>
       </c>
     </row>
@@ -62003,15 +61983,15 @@
       </c>
       <c r="B3102" t="inlineStr">
         <is>
-          <t>ELETRICA</t>
+          <t>TOMADAS</t>
         </is>
       </c>
       <c r="C3102" t="n">
-        <v>0.018</v>
+        <v>0.055</v>
       </c>
       <c r="D3102" t="inlineStr">
         <is>
-          <t>[('ELETRICA', 3.0), ('TOMADAS', 3.0)]</t>
+          <t>[('TOMADAS', 6.0)]</t>
         </is>
       </c>
     </row>
@@ -62023,15 +62003,15 @@
       </c>
       <c r="B3103" t="inlineStr">
         <is>
-          <t>ELETRICA</t>
+          <t>TOMADAS</t>
         </is>
       </c>
       <c r="C3103" t="n">
-        <v>0.018</v>
+        <v>0.055</v>
       </c>
       <c r="D3103" t="inlineStr">
         <is>
-          <t>[('ELETRICA', 3.0), ('TOMADAS', 3.0)]</t>
+          <t>[('TOMADAS', 6.0)]</t>
         </is>
       </c>
     </row>
@@ -62043,15 +62023,15 @@
       </c>
       <c r="B3104" t="inlineStr">
         <is>
-          <t>ELETRICA</t>
+          <t>TOMADAS</t>
         </is>
       </c>
       <c r="C3104" t="n">
-        <v>0.018</v>
+        <v>0.055</v>
       </c>
       <c r="D3104" t="inlineStr">
         <is>
-          <t>[('ELETRICA', 3.0), ('TOMADAS', 3.0)]</t>
+          <t>[('TOMADAS', 6.0)]</t>
         </is>
       </c>
     </row>
@@ -62063,15 +62043,15 @@
       </c>
       <c r="B3105" t="inlineStr">
         <is>
-          <t>ELETRICA</t>
+          <t>TOMADAS</t>
         </is>
       </c>
       <c r="C3105" t="n">
-        <v>0.018</v>
+        <v>0.055</v>
       </c>
       <c r="D3105" t="inlineStr">
         <is>
-          <t>[('ELETRICA', 3.0), ('TOMADAS', 3.0)]</t>
+          <t>[('TOMADAS', 6.0)]</t>
         </is>
       </c>
     </row>
@@ -62307,7 +62287,7 @@
         </is>
       </c>
       <c r="C3117" t="n">
-        <v>0.018</v>
+        <v>0.024</v>
       </c>
       <c r="D3117" t="inlineStr">
         <is>
@@ -63255,7 +63235,7 @@
         </is>
       </c>
       <c r="C3166" t="n">
-        <v>0.018</v>
+        <v>0.024</v>
       </c>
       <c r="D3166" t="inlineStr">
         <is>
@@ -63275,7 +63255,7 @@
         </is>
       </c>
       <c r="C3167" t="n">
-        <v>0.043</v>
+        <v>0.056</v>
       </c>
       <c r="D3167" t="inlineStr">
         <is>
@@ -63295,7 +63275,7 @@
         </is>
       </c>
       <c r="C3168" t="n">
-        <v>0.043</v>
+        <v>0.056</v>
       </c>
       <c r="D3168" t="inlineStr">
         <is>
@@ -64127,7 +64107,7 @@
         </is>
       </c>
       <c r="C3210" t="n">
-        <v>0.018</v>
+        <v>0.024</v>
       </c>
       <c r="D3210" t="inlineStr">
         <is>
@@ -64327,7 +64307,7 @@
         </is>
       </c>
       <c r="C3220" t="n">
-        <v>0.018</v>
+        <v>0.024</v>
       </c>
       <c r="D3220" t="inlineStr">
         <is>
@@ -64347,7 +64327,7 @@
         </is>
       </c>
       <c r="C3221" t="n">
-        <v>0.006</v>
+        <v>0.007</v>
       </c>
       <c r="D3221" t="inlineStr">
         <is>
@@ -64999,7 +64979,7 @@
         </is>
       </c>
       <c r="C3254" t="n">
-        <v>0.037</v>
+        <v>0.048</v>
       </c>
       <c r="D3254" t="inlineStr">
         <is>
@@ -65019,7 +64999,7 @@
         </is>
       </c>
       <c r="C3255" t="n">
-        <v>0.037</v>
+        <v>0.048</v>
       </c>
       <c r="D3255" t="inlineStr">
         <is>
@@ -65959,7 +65939,7 @@
         </is>
       </c>
       <c r="C3303" t="n">
-        <v>0.024</v>
+        <v>0.032</v>
       </c>
       <c r="D3303" t="inlineStr">
         <is>
@@ -65979,7 +65959,7 @@
         </is>
       </c>
       <c r="C3304" t="n">
-        <v>0.024</v>
+        <v>0.032</v>
       </c>
       <c r="D3304" t="inlineStr">
         <is>
@@ -67159,7 +67139,7 @@
         </is>
       </c>
       <c r="C3364" t="n">
-        <v>0.037</v>
+        <v>0.048</v>
       </c>
       <c r="D3364" t="inlineStr">
         <is>
@@ -67179,7 +67159,7 @@
         </is>
       </c>
       <c r="C3365" t="n">
-        <v>0.037</v>
+        <v>0.048</v>
       </c>
       <c r="D3365" t="inlineStr">
         <is>
@@ -67199,7 +67179,7 @@
         </is>
       </c>
       <c r="C3366" t="n">
-        <v>0.037</v>
+        <v>0.048</v>
       </c>
       <c r="D3366" t="inlineStr">
         <is>
@@ -67299,7 +67279,7 @@
         </is>
       </c>
       <c r="C3371" t="n">
-        <v>0.018</v>
+        <v>0.024</v>
       </c>
       <c r="D3371" t="inlineStr">
         <is>
@@ -67319,7 +67299,7 @@
         </is>
       </c>
       <c r="C3372" t="n">
-        <v>0.018</v>
+        <v>0.024</v>
       </c>
       <c r="D3372" t="inlineStr">
         <is>
@@ -67339,7 +67319,7 @@
         </is>
       </c>
       <c r="C3373" t="n">
-        <v>0.018</v>
+        <v>0.024</v>
       </c>
       <c r="D3373" t="inlineStr">
         <is>
@@ -67359,7 +67339,7 @@
         </is>
       </c>
       <c r="C3374" t="n">
-        <v>0.018</v>
+        <v>0.024</v>
       </c>
       <c r="D3374" t="inlineStr">
         <is>
@@ -67499,7 +67479,7 @@
         </is>
       </c>
       <c r="C3381" t="n">
-        <v>0.018</v>
+        <v>0.024</v>
       </c>
       <c r="D3381" t="inlineStr">
         <is>
@@ -67519,7 +67499,7 @@
         </is>
       </c>
       <c r="C3382" t="n">
-        <v>0.018</v>
+        <v>0.024</v>
       </c>
       <c r="D3382" t="inlineStr">
         <is>
@@ -67539,7 +67519,7 @@
         </is>
       </c>
       <c r="C3383" t="n">
-        <v>0.018</v>
+        <v>0.024</v>
       </c>
       <c r="D3383" t="inlineStr">
         <is>
@@ -67559,7 +67539,7 @@
         </is>
       </c>
       <c r="C3384" t="n">
-        <v>0.018</v>
+        <v>0.024</v>
       </c>
       <c r="D3384" t="inlineStr">
         <is>
@@ -67619,7 +67599,7 @@
         </is>
       </c>
       <c r="C3387" t="n">
-        <v>0.018</v>
+        <v>0.024</v>
       </c>
       <c r="D3387" t="inlineStr">
         <is>
@@ -67899,7 +67879,7 @@
         </is>
       </c>
       <c r="C3401" t="n">
-        <v>0.018</v>
+        <v>0.024</v>
       </c>
       <c r="D3401" t="inlineStr">
         <is>
@@ -67919,7 +67899,7 @@
         </is>
       </c>
       <c r="C3402" t="n">
-        <v>0.018</v>
+        <v>0.024</v>
       </c>
       <c r="D3402" t="inlineStr">
         <is>
@@ -67939,7 +67919,7 @@
         </is>
       </c>
       <c r="C3403" t="n">
-        <v>0.018</v>
+        <v>0.024</v>
       </c>
       <c r="D3403" t="inlineStr">
         <is>
@@ -67959,7 +67939,7 @@
         </is>
       </c>
       <c r="C3404" t="n">
-        <v>0.018</v>
+        <v>0.024</v>
       </c>
       <c r="D3404" t="inlineStr">
         <is>
@@ -68179,7 +68159,7 @@
         </is>
       </c>
       <c r="C3415" t="n">
-        <v>0.018</v>
+        <v>0.024</v>
       </c>
       <c r="D3415" t="inlineStr">
         <is>
@@ -68199,7 +68179,7 @@
         </is>
       </c>
       <c r="C3416" t="n">
-        <v>0.018</v>
+        <v>0.024</v>
       </c>
       <c r="D3416" t="inlineStr">
         <is>
@@ -68219,7 +68199,7 @@
         </is>
       </c>
       <c r="C3417" t="n">
-        <v>0.018</v>
+        <v>0.024</v>
       </c>
       <c r="D3417" t="inlineStr">
         <is>
@@ -68239,7 +68219,7 @@
         </is>
       </c>
       <c r="C3418" t="n">
-        <v>0.018</v>
+        <v>0.024</v>
       </c>
       <c r="D3418" t="inlineStr">
         <is>
@@ -68259,7 +68239,7 @@
         </is>
       </c>
       <c r="C3419" t="n">
-        <v>0.018</v>
+        <v>0.024</v>
       </c>
       <c r="D3419" t="inlineStr">
         <is>
@@ -68339,7 +68319,7 @@
         </is>
       </c>
       <c r="C3423" t="n">
-        <v>0.018</v>
+        <v>0.024</v>
       </c>
       <c r="D3423" t="inlineStr">
         <is>
@@ -68359,7 +68339,7 @@
         </is>
       </c>
       <c r="C3424" t="n">
-        <v>0.018</v>
+        <v>0.024</v>
       </c>
       <c r="D3424" t="inlineStr">
         <is>
@@ -68379,7 +68359,7 @@
         </is>
       </c>
       <c r="C3425" t="n">
-        <v>0.037</v>
+        <v>0.048</v>
       </c>
       <c r="D3425" t="inlineStr">
         <is>
@@ -68399,7 +68379,7 @@
         </is>
       </c>
       <c r="C3426" t="n">
-        <v>0.037</v>
+        <v>0.048</v>
       </c>
       <c r="D3426" t="inlineStr">
         <is>
@@ -68419,7 +68399,7 @@
         </is>
       </c>
       <c r="C3427" t="n">
-        <v>0.037</v>
+        <v>0.048</v>
       </c>
       <c r="D3427" t="inlineStr">
         <is>
@@ -68439,7 +68419,7 @@
         </is>
       </c>
       <c r="C3428" t="n">
-        <v>0.037</v>
+        <v>0.048</v>
       </c>
       <c r="D3428" t="inlineStr">
         <is>
@@ -68459,7 +68439,7 @@
         </is>
       </c>
       <c r="C3429" t="n">
-        <v>0.037</v>
+        <v>0.048</v>
       </c>
       <c r="D3429" t="inlineStr">
         <is>
@@ -68479,7 +68459,7 @@
         </is>
       </c>
       <c r="C3430" t="n">
-        <v>0.037</v>
+        <v>0.048</v>
       </c>
       <c r="D3430" t="inlineStr">
         <is>
@@ -68499,7 +68479,7 @@
         </is>
       </c>
       <c r="C3431" t="n">
-        <v>0.018</v>
+        <v>0.024</v>
       </c>
       <c r="D3431" t="inlineStr">
         <is>
@@ -68719,7 +68699,7 @@
         </is>
       </c>
       <c r="C3442" t="n">
-        <v>0.006</v>
+        <v>0.008</v>
       </c>
       <c r="D3442" t="inlineStr">
         <is>
@@ -68739,7 +68719,7 @@
         </is>
       </c>
       <c r="C3443" t="n">
-        <v>0.006</v>
+        <v>0.008</v>
       </c>
       <c r="D3443" t="inlineStr">
         <is>
@@ -69039,7 +69019,7 @@
         </is>
       </c>
       <c r="C3459" t="n">
-        <v>0.018</v>
+        <v>0.024</v>
       </c>
       <c r="D3459" t="inlineStr">
         <is>
@@ -70339,7 +70319,7 @@
         </is>
       </c>
       <c r="C3524" t="n">
-        <v>0.03</v>
+        <v>0.039</v>
       </c>
       <c r="D3524" t="inlineStr">
         <is>
@@ -70359,7 +70339,7 @@
         </is>
       </c>
       <c r="C3525" t="n">
-        <v>0.03</v>
+        <v>0.039</v>
       </c>
       <c r="D3525" t="inlineStr">
         <is>
@@ -70607,7 +70587,7 @@
         </is>
       </c>
       <c r="C3538" t="n">
-        <v>0.018</v>
+        <v>0.024</v>
       </c>
       <c r="D3538" t="inlineStr">
         <is>
@@ -70627,7 +70607,7 @@
         </is>
       </c>
       <c r="C3539" t="n">
-        <v>0.018</v>
+        <v>0.024</v>
       </c>
       <c r="D3539" t="inlineStr">
         <is>
@@ -70647,7 +70627,7 @@
         </is>
       </c>
       <c r="C3540" t="n">
-        <v>0.018</v>
+        <v>0.024</v>
       </c>
       <c r="D3540" t="inlineStr">
         <is>
@@ -70667,7 +70647,7 @@
         </is>
       </c>
       <c r="C3541" t="n">
-        <v>0.018</v>
+        <v>0.024</v>
       </c>
       <c r="D3541" t="inlineStr">
         <is>
@@ -70683,15 +70663,15 @@
       </c>
       <c r="B3542" t="inlineStr">
         <is>
-          <t>ELETRICA</t>
+          <t>TOMADAS</t>
         </is>
       </c>
       <c r="C3542" t="n">
-        <v>0.043</v>
+        <v>0.063</v>
       </c>
       <c r="D3542" t="inlineStr">
         <is>
-          <t>[('ELETRICA', 6.9743589743589745)]</t>
+          <t>[('TOMADAS', 6.9743589743589745)]</t>
         </is>
       </c>
     </row>
@@ -70735,15 +70715,15 @@
       </c>
       <c r="B3545" t="inlineStr">
         <is>
-          <t>ELETRICA</t>
+          <t>TOMADAS</t>
         </is>
       </c>
       <c r="C3545" t="n">
-        <v>0.043</v>
+        <v>0.063</v>
       </c>
       <c r="D3545" t="inlineStr">
         <is>
-          <t>[('ELETRICA', 6.9743589743589745)]</t>
+          <t>[('TOMADAS', 6.9743589743589745)]</t>
         </is>
       </c>
     </row>
@@ -70823,7 +70803,7 @@
         </is>
       </c>
       <c r="C3550" t="n">
-        <v>0.018</v>
+        <v>0.024</v>
       </c>
       <c r="D3550" t="inlineStr">
         <is>
@@ -70843,7 +70823,7 @@
         </is>
       </c>
       <c r="C3551" t="n">
-        <v>0.018</v>
+        <v>0.024</v>
       </c>
       <c r="D3551" t="inlineStr">
         <is>
@@ -70863,7 +70843,7 @@
         </is>
       </c>
       <c r="C3552" t="n">
-        <v>0.018</v>
+        <v>0.024</v>
       </c>
       <c r="D3552" t="inlineStr">
         <is>
@@ -70903,7 +70883,7 @@
         </is>
       </c>
       <c r="C3554" t="n">
-        <v>0.006</v>
+        <v>0.008</v>
       </c>
       <c r="D3554" t="inlineStr">
         <is>
@@ -71839,7 +71819,7 @@
         </is>
       </c>
       <c r="C3601" t="n">
-        <v>0.024</v>
+        <v>0.032</v>
       </c>
       <c r="D3601" t="inlineStr">
         <is>
@@ -71859,7 +71839,7 @@
         </is>
       </c>
       <c r="C3602" t="n">
-        <v>0.024</v>
+        <v>0.032</v>
       </c>
       <c r="D3602" t="inlineStr">
         <is>
@@ -71879,7 +71859,7 @@
         </is>
       </c>
       <c r="C3603" t="n">
-        <v>0.024</v>
+        <v>0.032</v>
       </c>
       <c r="D3603" t="inlineStr">
         <is>
@@ -71919,7 +71899,7 @@
         </is>
       </c>
       <c r="C3605" t="n">
-        <v>0.018</v>
+        <v>0.024</v>
       </c>
       <c r="D3605" t="inlineStr">
         <is>
@@ -71939,7 +71919,7 @@
         </is>
       </c>
       <c r="C3606" t="n">
-        <v>0.018</v>
+        <v>0.024</v>
       </c>
       <c r="D3606" t="inlineStr">
         <is>
@@ -71959,7 +71939,7 @@
         </is>
       </c>
       <c r="C3607" t="n">
-        <v>0.018</v>
+        <v>0.024</v>
       </c>
       <c r="D3607" t="inlineStr">
         <is>
@@ -71979,7 +71959,7 @@
         </is>
       </c>
       <c r="C3608" t="n">
-        <v>0.018</v>
+        <v>0.024</v>
       </c>
       <c r="D3608" t="inlineStr">
         <is>
@@ -71999,7 +71979,7 @@
         </is>
       </c>
       <c r="C3609" t="n">
-        <v>0.018</v>
+        <v>0.024</v>
       </c>
       <c r="D3609" t="inlineStr">
         <is>
@@ -72267,15 +72247,15 @@
       </c>
       <c r="B3623" t="inlineStr">
         <is>
-          <t>ELETRICA</t>
+          <t>TOMADAS</t>
         </is>
       </c>
       <c r="C3623" t="n">
-        <v>0.006</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="D3623" t="inlineStr">
         <is>
-          <t>[('ELETRICA', 0.9375)]</t>
+          <t>[('TOMADAS', 0.9375)]</t>
         </is>
       </c>
     </row>
@@ -72287,15 +72267,15 @@
       </c>
       <c r="B3624" t="inlineStr">
         <is>
-          <t>ELETRICA</t>
+          <t>TOMADAS</t>
         </is>
       </c>
       <c r="C3624" t="n">
-        <v>0.006</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="D3624" t="inlineStr">
         <is>
-          <t>[('ELETRICA', 0.9375)]</t>
+          <t>[('TOMADAS', 0.9375)]</t>
         </is>
       </c>
     </row>
@@ -72307,15 +72287,15 @@
       </c>
       <c r="B3625" t="inlineStr">
         <is>
-          <t>ELETRICA</t>
+          <t>TOMADAS</t>
         </is>
       </c>
       <c r="C3625" t="n">
-        <v>0.006</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="D3625" t="inlineStr">
         <is>
-          <t>[('ELETRICA', 0.9375)]</t>
+          <t>[('TOMADAS', 0.9375)]</t>
         </is>
       </c>
     </row>
@@ -72327,15 +72307,15 @@
       </c>
       <c r="B3626" t="inlineStr">
         <is>
-          <t>ELETRICA</t>
+          <t>TOMADAS</t>
         </is>
       </c>
       <c r="C3626" t="n">
-        <v>0.006</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="D3626" t="inlineStr">
         <is>
-          <t>[('ELETRICA', 0.9375)]</t>
+          <t>[('TOMADAS', 0.9375)]</t>
         </is>
       </c>
     </row>
@@ -72347,15 +72327,15 @@
       </c>
       <c r="B3627" t="inlineStr">
         <is>
-          <t>ELETRICA</t>
+          <t>TOMADAS</t>
         </is>
       </c>
       <c r="C3627" t="n">
-        <v>0.006</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="D3627" t="inlineStr">
         <is>
-          <t>[('ELETRICA', 0.9375)]</t>
+          <t>[('TOMADAS', 0.9375)]</t>
         </is>
       </c>
     </row>
@@ -72367,15 +72347,15 @@
       </c>
       <c r="B3628" t="inlineStr">
         <is>
-          <t>ELETRICA</t>
+          <t>TOMADAS</t>
         </is>
       </c>
       <c r="C3628" t="n">
-        <v>0.006</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="D3628" t="inlineStr">
         <is>
-          <t>[('ELETRICA', 0.9375)]</t>
+          <t>[('TOMADAS', 0.9375)]</t>
         </is>
       </c>
     </row>
@@ -72387,15 +72367,15 @@
       </c>
       <c r="B3629" t="inlineStr">
         <is>
-          <t>ELETRICA</t>
+          <t>TOMADAS</t>
         </is>
       </c>
       <c r="C3629" t="n">
-        <v>0.006</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="D3629" t="inlineStr">
         <is>
-          <t>[('ELETRICA', 0.9375)]</t>
+          <t>[('TOMADAS', 0.9375)]</t>
         </is>
       </c>
     </row>
@@ -72407,15 +72387,15 @@
       </c>
       <c r="B3630" t="inlineStr">
         <is>
-          <t>ELETRICA</t>
+          <t>TOMADAS</t>
         </is>
       </c>
       <c r="C3630" t="n">
-        <v>0.006</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="D3630" t="inlineStr">
         <is>
-          <t>[('ELETRICA', 0.9375)]</t>
+          <t>[('TOMADAS', 0.9375)]</t>
         </is>
       </c>
     </row>
@@ -72571,7 +72551,7 @@
         </is>
       </c>
       <c r="C3638" t="n">
-        <v>0.037</v>
+        <v>0.048</v>
       </c>
       <c r="D3638" t="inlineStr">
         <is>
@@ -73091,7 +73071,7 @@
         </is>
       </c>
       <c r="C3664" t="n">
-        <v>0.045</v>
+        <v>0.027</v>
       </c>
       <c r="D3664" t="inlineStr">
         <is>
@@ -73111,7 +73091,7 @@
         </is>
       </c>
       <c r="C3665" t="n">
-        <v>0.045</v>
+        <v>0.027</v>
       </c>
       <c r="D3665" t="inlineStr">
         <is>
@@ -73131,7 +73111,7 @@
         </is>
       </c>
       <c r="C3666" t="n">
-        <v>0.045</v>
+        <v>0.027</v>
       </c>
       <c r="D3666" t="inlineStr">
         <is>
@@ -73151,7 +73131,7 @@
         </is>
       </c>
       <c r="C3667" t="n">
-        <v>0.091</v>
+        <v>0.055</v>
       </c>
       <c r="D3667" t="inlineStr">
         <is>
@@ -73271,7 +73251,7 @@
         </is>
       </c>
       <c r="C3673" t="n">
-        <v>0.018</v>
+        <v>0.024</v>
       </c>
       <c r="D3673" t="inlineStr">
         <is>
@@ -73291,7 +73271,7 @@
         </is>
       </c>
       <c r="C3674" t="n">
-        <v>0.018</v>
+        <v>0.024</v>
       </c>
       <c r="D3674" t="inlineStr">
         <is>
@@ -73311,7 +73291,7 @@
         </is>
       </c>
       <c r="C3675" t="n">
-        <v>0.018</v>
+        <v>0.024</v>
       </c>
       <c r="D3675" t="inlineStr">
         <is>
@@ -73331,7 +73311,7 @@
         </is>
       </c>
       <c r="C3676" t="n">
-        <v>0.018</v>
+        <v>0.024</v>
       </c>
       <c r="D3676" t="inlineStr">
         <is>
@@ -73951,7 +73931,7 @@
         </is>
       </c>
       <c r="C3707" t="n">
-        <v>0.018</v>
+        <v>0.024</v>
       </c>
       <c r="D3707" t="inlineStr">
         <is>
@@ -74131,7 +74111,7 @@
         </is>
       </c>
       <c r="C3716" t="n">
-        <v>0.018</v>
+        <v>0.024</v>
       </c>
       <c r="D3716" t="inlineStr">
         <is>
@@ -74151,7 +74131,7 @@
         </is>
       </c>
       <c r="C3717" t="n">
-        <v>0.018</v>
+        <v>0.024</v>
       </c>
       <c r="D3717" t="inlineStr">
         <is>
@@ -74707,7 +74687,7 @@
         </is>
       </c>
       <c r="C3745" t="n">
-        <v>0.018</v>
+        <v>0.024</v>
       </c>
       <c r="D3745" t="inlineStr">
         <is>
@@ -74727,7 +74707,7 @@
         </is>
       </c>
       <c r="C3746" t="n">
-        <v>0.018</v>
+        <v>0.024</v>
       </c>
       <c r="D3746" t="inlineStr">
         <is>
@@ -74747,7 +74727,7 @@
         </is>
       </c>
       <c r="C3747" t="n">
-        <v>0.018</v>
+        <v>0.024</v>
       </c>
       <c r="D3747" t="inlineStr">
         <is>
@@ -74767,7 +74747,7 @@
         </is>
       </c>
       <c r="C3748" t="n">
-        <v>0.018</v>
+        <v>0.024</v>
       </c>
       <c r="D3748" t="inlineStr">
         <is>
@@ -74827,7 +74807,7 @@
         </is>
       </c>
       <c r="C3751" t="n">
-        <v>0.018</v>
+        <v>0.024</v>
       </c>
       <c r="D3751" t="inlineStr">
         <is>
@@ -74883,7 +74863,7 @@
         </is>
       </c>
       <c r="C3754" t="n">
-        <v>0.018</v>
+        <v>0.024</v>
       </c>
       <c r="D3754" t="inlineStr">
         <is>
@@ -74903,7 +74883,7 @@
         </is>
       </c>
       <c r="C3755" t="n">
-        <v>0.018</v>
+        <v>0.024</v>
       </c>
       <c r="D3755" t="inlineStr">
         <is>
@@ -74923,7 +74903,7 @@
         </is>
       </c>
       <c r="C3756" t="n">
-        <v>0.018</v>
+        <v>0.024</v>
       </c>
       <c r="D3756" t="inlineStr">
         <is>
@@ -74943,7 +74923,7 @@
         </is>
       </c>
       <c r="C3757" t="n">
-        <v>0.018</v>
+        <v>0.024</v>
       </c>
       <c r="D3757" t="inlineStr">
         <is>
@@ -74963,7 +74943,7 @@
         </is>
       </c>
       <c r="C3758" t="n">
-        <v>0.018</v>
+        <v>0.024</v>
       </c>
       <c r="D3758" t="inlineStr">
         <is>
@@ -77011,7 +76991,7 @@
       </c>
       <c r="D3861" t="inlineStr">
         <is>
-          <t>[('DIVERSOS UD UTILIDADES DOMESTICAS', 3.0), ('ELETRICA', 1.0), ('FERRAMENTAS MANUAIS', 1.0)]</t>
+          <t>[('DIVERSOS UD UTILIDADES DOMESTICAS', 3.0), ('FERRAMENTAS MANUAIS', 1.0)]</t>
         </is>
       </c>
     </row>
@@ -77487,7 +77467,7 @@
         </is>
       </c>
       <c r="C3885" t="n">
-        <v>0.018</v>
+        <v>0.024</v>
       </c>
       <c r="D3885" t="inlineStr">
         <is>
@@ -77507,7 +77487,7 @@
         </is>
       </c>
       <c r="C3886" t="n">
-        <v>0.018</v>
+        <v>0.024</v>
       </c>
       <c r="D3886" t="inlineStr">
         <is>
@@ -77527,7 +77507,7 @@
         </is>
       </c>
       <c r="C3887" t="n">
-        <v>0.018</v>
+        <v>0.024</v>
       </c>
       <c r="D3887" t="inlineStr">
         <is>
@@ -77547,7 +77527,7 @@
         </is>
       </c>
       <c r="C3888" t="n">
-        <v>0.018</v>
+        <v>0.024</v>
       </c>
       <c r="D3888" t="inlineStr">
         <is>
@@ -77567,7 +77547,7 @@
         </is>
       </c>
       <c r="C3889" t="n">
-        <v>0.018</v>
+        <v>0.024</v>
       </c>
       <c r="D3889" t="inlineStr">
         <is>
@@ -77587,7 +77567,7 @@
         </is>
       </c>
       <c r="C3890" t="n">
-        <v>0.018</v>
+        <v>0.024</v>
       </c>
       <c r="D3890" t="inlineStr">
         <is>
@@ -77607,7 +77587,7 @@
         </is>
       </c>
       <c r="C3891" t="n">
-        <v>0.018</v>
+        <v>0.024</v>
       </c>
       <c r="D3891" t="inlineStr">
         <is>
@@ -77627,7 +77607,7 @@
         </is>
       </c>
       <c r="C3892" t="n">
-        <v>0.018</v>
+        <v>0.024</v>
       </c>
       <c r="D3892" t="inlineStr">
         <is>
@@ -77767,7 +77747,7 @@
         </is>
       </c>
       <c r="C3899" t="n">
-        <v>0.037</v>
+        <v>0.048</v>
       </c>
       <c r="D3899" t="inlineStr">
         <is>
@@ -78267,7 +78247,7 @@
         </is>
       </c>
       <c r="C3924" t="n">
-        <v>0.018</v>
+        <v>0.024</v>
       </c>
       <c r="D3924" t="inlineStr">
         <is>
@@ -78407,7 +78387,7 @@
         </is>
       </c>
       <c r="C3931" t="n">
-        <v>0.018</v>
+        <v>0.024</v>
       </c>
       <c r="D3931" t="inlineStr">
         <is>
@@ -78427,7 +78407,7 @@
         </is>
       </c>
       <c r="C3932" t="n">
-        <v>0.006</v>
+        <v>0.008</v>
       </c>
       <c r="D3932" t="inlineStr">
         <is>
@@ -78527,7 +78507,7 @@
         </is>
       </c>
       <c r="C3937" t="n">
-        <v>0.037</v>
+        <v>0.048</v>
       </c>
       <c r="D3937" t="inlineStr">
         <is>
@@ -78647,7 +78627,7 @@
         </is>
       </c>
       <c r="C3943" t="n">
-        <v>0.018</v>
+        <v>0.024</v>
       </c>
       <c r="D3943" t="inlineStr">
         <is>
@@ -79187,7 +79167,7 @@
         </is>
       </c>
       <c r="C3970" t="n">
-        <v>0.018</v>
+        <v>0.024</v>
       </c>
       <c r="D3970" t="inlineStr">
         <is>
@@ -80039,7 +80019,7 @@
         </is>
       </c>
       <c r="C4013" t="n">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="D4013" t="inlineStr">
         <is>
@@ -80115,15 +80095,15 @@
       </c>
       <c r="B4017" t="inlineStr">
         <is>
-          <t>ELETRICA</t>
+          <t>HIDRAULICA</t>
         </is>
       </c>
       <c r="C4017" t="n">
-        <v>0.018</v>
+        <v>0.019</v>
       </c>
       <c r="D4017" t="inlineStr">
         <is>
-          <t>[('ELETRICA', 3.0), ('HIDRAULICA', 3.0)]</t>
+          <t>[('HIDRAULICA', 3.0), ('TOMADAS', 3.0)]</t>
         </is>
       </c>
     </row>
@@ -80619,7 +80599,7 @@
         </is>
       </c>
       <c r="C4042" t="n">
-        <v>0.045</v>
+        <v>0.027</v>
       </c>
       <c r="D4042" t="inlineStr">
         <is>
@@ -80783,7 +80763,7 @@
       </c>
       <c r="D4050" t="inlineStr">
         <is>
-          <t>[('FERRAMENTAS ELETRICA E ACESSORIOS', 6.0)]</t>
+          <t>[('FERRAMENTAS ELETRICA E ACESSORIOS', 6.0), ('TOMADAS', 0.9285714285714286)]</t>
         </is>
       </c>
     </row>
@@ -81099,7 +81079,7 @@
         </is>
       </c>
       <c r="C4066" t="n">
-        <v>0.018</v>
+        <v>0.024</v>
       </c>
       <c r="D4066" t="inlineStr">
         <is>
@@ -81535,15 +81515,15 @@
       </c>
       <c r="B4088" t="inlineStr">
         <is>
-          <t>ELETRICA</t>
+          <t>TOMADAS</t>
         </is>
       </c>
       <c r="C4088" t="n">
-        <v>0.018</v>
+        <v>0.027</v>
       </c>
       <c r="D4088" t="inlineStr">
         <is>
-          <t>[('ELETRICA', 3.0)]</t>
+          <t>[('TOMADAS', 3.0)]</t>
         </is>
       </c>
     </row>
@@ -81599,7 +81579,7 @@
         </is>
       </c>
       <c r="C4091" t="n">
-        <v>0.018</v>
+        <v>0.024</v>
       </c>
       <c r="D4091" t="inlineStr">
         <is>
@@ -81659,7 +81639,7 @@
         </is>
       </c>
       <c r="C4094" t="n">
-        <v>0.037</v>
+        <v>0.048</v>
       </c>
       <c r="D4094" t="inlineStr">
         <is>
@@ -81675,15 +81655,15 @@
       </c>
       <c r="B4095" t="inlineStr">
         <is>
-          <t>ELETRICA</t>
+          <t>TOMADAS</t>
         </is>
       </c>
       <c r="C4095" t="n">
-        <v>0.018</v>
+        <v>0.027</v>
       </c>
       <c r="D4095" t="inlineStr">
         <is>
-          <t>[('ELETRICA', 3.0)]</t>
+          <t>[('TOMADAS', 3.0)]</t>
         </is>
       </c>
     </row>
@@ -81739,7 +81719,7 @@
         </is>
       </c>
       <c r="C4098" t="n">
-        <v>0.018</v>
+        <v>0.024</v>
       </c>
       <c r="D4098" t="inlineStr">
         <is>
@@ -82195,15 +82175,15 @@
       </c>
       <c r="B4121" t="inlineStr">
         <is>
-          <t>ELETRICA</t>
+          <t>TOMADAS</t>
         </is>
       </c>
       <c r="C4121" t="n">
-        <v>0.018</v>
+        <v>0.027</v>
       </c>
       <c r="D4121" t="inlineStr">
         <is>
-          <t>[('ELETRICA', 3.0)]</t>
+          <t>[('TOMADAS', 3.0)]</t>
         </is>
       </c>
     </row>
@@ -82379,7 +82359,7 @@
         </is>
       </c>
       <c r="C4130" t="n">
-        <v>0.018</v>
+        <v>0.024</v>
       </c>
       <c r="D4130" t="inlineStr">
         <is>
@@ -82459,7 +82439,7 @@
         </is>
       </c>
       <c r="C4134" t="n">
-        <v>0.018</v>
+        <v>0.024</v>
       </c>
       <c r="D4134" t="inlineStr">
         <is>
@@ -82479,7 +82459,7 @@
         </is>
       </c>
       <c r="C4135" t="n">
-        <v>0.018</v>
+        <v>0.024</v>
       </c>
       <c r="D4135" t="inlineStr">
         <is>
@@ -82499,7 +82479,7 @@
         </is>
       </c>
       <c r="C4136" t="n">
-        <v>0.025</v>
+        <v>0.024</v>
       </c>
       <c r="D4136" t="inlineStr">
         <is>
@@ -82559,7 +82539,7 @@
         </is>
       </c>
       <c r="C4139" t="n">
-        <v>0.018</v>
+        <v>0.024</v>
       </c>
       <c r="D4139" t="inlineStr">
         <is>
@@ -82679,7 +82659,7 @@
         </is>
       </c>
       <c r="C4145" t="n">
-        <v>0.018</v>
+        <v>0.024</v>
       </c>
       <c r="D4145" t="inlineStr">
         <is>
@@ -83059,7 +83039,7 @@
         </is>
       </c>
       <c r="C4164" t="n">
-        <v>0.018</v>
+        <v>0.024</v>
       </c>
       <c r="D4164" t="inlineStr">
         <is>
@@ -83235,7 +83215,7 @@
         </is>
       </c>
       <c r="C4173" t="n">
-        <v>0.018</v>
+        <v>0.024</v>
       </c>
       <c r="D4173" t="inlineStr">
         <is>
@@ -83255,7 +83235,7 @@
         </is>
       </c>
       <c r="C4174" t="n">
-        <v>0.018</v>
+        <v>0.024</v>
       </c>
       <c r="D4174" t="inlineStr">
         <is>
@@ -83495,7 +83475,7 @@
         </is>
       </c>
       <c r="C4186" t="n">
-        <v>0.018</v>
+        <v>0.024</v>
       </c>
       <c r="D4186" t="inlineStr">
         <is>
@@ -83675,7 +83655,7 @@
         </is>
       </c>
       <c r="C4195" t="n">
-        <v>0.018</v>
+        <v>0.024</v>
       </c>
       <c r="D4195" t="inlineStr">
         <is>
@@ -83715,7 +83695,7 @@
         </is>
       </c>
       <c r="C4197" t="n">
-        <v>0.038</v>
+        <v>0.037</v>
       </c>
       <c r="D4197" t="inlineStr">
         <is>
@@ -83811,15 +83791,15 @@
       </c>
       <c r="B4202" t="inlineStr">
         <is>
-          <t>ELETRICA</t>
+          <t>TOMADAS</t>
         </is>
       </c>
       <c r="C4202" t="n">
-        <v>0.018</v>
+        <v>0.027</v>
       </c>
       <c r="D4202" t="inlineStr">
         <is>
-          <t>[('ELETRICA', 3.0)]</t>
+          <t>[('TOMADAS', 3.0)]</t>
         </is>
       </c>
     </row>

--- a/planilhas/outputs/Relatorio_Dominios_Ambiguos.xlsx
+++ b/planilhas/outputs/Relatorio_Dominios_Ambiguos.xlsx
@@ -14239,7 +14239,7 @@
         </is>
       </c>
       <c r="C693" t="n">
-        <v>0.082</v>
+        <v>0.08</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -14259,7 +14259,7 @@
         </is>
       </c>
       <c r="C694" t="n">
-        <v>0.082</v>
+        <v>0.08</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -14279,7 +14279,7 @@
         </is>
       </c>
       <c r="C695" t="n">
-        <v>0.045</v>
+        <v>0.044</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -16167,7 +16167,7 @@
         </is>
       </c>
       <c r="C790" t="n">
-        <v>0.055</v>
+        <v>0.054</v>
       </c>
       <c r="D790" t="inlineStr">
         <is>
@@ -16339,7 +16339,7 @@
         </is>
       </c>
       <c r="C799" t="n">
-        <v>0.055</v>
+        <v>0.054</v>
       </c>
       <c r="D799" t="inlineStr">
         <is>
@@ -16439,7 +16439,7 @@
         </is>
       </c>
       <c r="C804" t="n">
-        <v>0.055</v>
+        <v>0.054</v>
       </c>
       <c r="D804" t="inlineStr">
         <is>
@@ -16459,7 +16459,7 @@
         </is>
       </c>
       <c r="C805" t="n">
-        <v>0.055</v>
+        <v>0.054</v>
       </c>
       <c r="D805" t="inlineStr">
         <is>
@@ -16479,7 +16479,7 @@
         </is>
       </c>
       <c r="C806" t="n">
-        <v>0.055</v>
+        <v>0.054</v>
       </c>
       <c r="D806" t="inlineStr">
         <is>
@@ -16499,7 +16499,7 @@
         </is>
       </c>
       <c r="C807" t="n">
-        <v>0.055</v>
+        <v>0.054</v>
       </c>
       <c r="D807" t="inlineStr">
         <is>
@@ -16519,7 +16519,7 @@
         </is>
       </c>
       <c r="C808" t="n">
-        <v>0.055</v>
+        <v>0.054</v>
       </c>
       <c r="D808" t="inlineStr">
         <is>
@@ -16579,7 +16579,7 @@
         </is>
       </c>
       <c r="C811" t="n">
-        <v>0.055</v>
+        <v>0.054</v>
       </c>
       <c r="D811" t="inlineStr">
         <is>
@@ -16599,7 +16599,7 @@
         </is>
       </c>
       <c r="C812" t="n">
-        <v>0.055</v>
+        <v>0.054</v>
       </c>
       <c r="D812" t="inlineStr">
         <is>
@@ -30195,7 +30195,7 @@
         </is>
       </c>
       <c r="C1499" t="n">
-        <v>0.055</v>
+        <v>0.054</v>
       </c>
       <c r="D1499" t="inlineStr">
         <is>
@@ -30215,7 +30215,7 @@
         </is>
       </c>
       <c r="C1500" t="n">
-        <v>0.055</v>
+        <v>0.054</v>
       </c>
       <c r="D1500" t="inlineStr">
         <is>
@@ -30235,7 +30235,7 @@
         </is>
       </c>
       <c r="C1501" t="n">
-        <v>0.055</v>
+        <v>0.054</v>
       </c>
       <c r="D1501" t="inlineStr">
         <is>
@@ -30255,7 +30255,7 @@
         </is>
       </c>
       <c r="C1502" t="n">
-        <v>0.055</v>
+        <v>0.054</v>
       </c>
       <c r="D1502" t="inlineStr">
         <is>
@@ -35867,7 +35867,7 @@
         </is>
       </c>
       <c r="C1784" t="n">
-        <v>0.055</v>
+        <v>0.054</v>
       </c>
       <c r="D1784" t="inlineStr">
         <is>
@@ -35887,7 +35887,7 @@
         </is>
       </c>
       <c r="C1785" t="n">
-        <v>0.055</v>
+        <v>0.054</v>
       </c>
       <c r="D1785" t="inlineStr">
         <is>
@@ -35907,7 +35907,7 @@
         </is>
       </c>
       <c r="C1786" t="n">
-        <v>0.055</v>
+        <v>0.054</v>
       </c>
       <c r="D1786" t="inlineStr">
         <is>
@@ -35927,7 +35927,7 @@
         </is>
       </c>
       <c r="C1787" t="n">
-        <v>0.055</v>
+        <v>0.054</v>
       </c>
       <c r="D1787" t="inlineStr">
         <is>
@@ -35947,7 +35947,7 @@
         </is>
       </c>
       <c r="C1788" t="n">
-        <v>0.055</v>
+        <v>0.054</v>
       </c>
       <c r="D1788" t="inlineStr">
         <is>
@@ -38791,7 +38791,7 @@
         </is>
       </c>
       <c r="C1931" t="n">
-        <v>0.055</v>
+        <v>0.054</v>
       </c>
       <c r="D1931" t="inlineStr">
         <is>
@@ -48419,7 +48419,7 @@
         </is>
       </c>
       <c r="C2418" t="n">
-        <v>0.063</v>
+        <v>0.062</v>
       </c>
       <c r="D2418" t="inlineStr">
         <is>
@@ -48439,7 +48439,7 @@
         </is>
       </c>
       <c r="C2419" t="n">
-        <v>0.063</v>
+        <v>0.062</v>
       </c>
       <c r="D2419" t="inlineStr">
         <is>
@@ -48459,7 +48459,7 @@
         </is>
       </c>
       <c r="C2420" t="n">
-        <v>0.07199999999999999</v>
+        <v>0.07099999999999999</v>
       </c>
       <c r="D2420" t="inlineStr">
         <is>
@@ -48479,7 +48479,7 @@
         </is>
       </c>
       <c r="C2421" t="n">
-        <v>0.063</v>
+        <v>0.062</v>
       </c>
       <c r="D2421" t="inlineStr">
         <is>
@@ -48499,7 +48499,7 @@
         </is>
       </c>
       <c r="C2422" t="n">
-        <v>0.008999999999999999</v>
+        <v>0.008</v>
       </c>
       <c r="D2422" t="inlineStr">
         <is>
@@ -48559,7 +48559,7 @@
         </is>
       </c>
       <c r="C2425" t="n">
-        <v>0.09</v>
+        <v>0.089</v>
       </c>
       <c r="D2425" t="inlineStr">
         <is>
@@ -48639,7 +48639,7 @@
         </is>
       </c>
       <c r="C2429" t="n">
-        <v>0.09</v>
+        <v>0.089</v>
       </c>
       <c r="D2429" t="inlineStr">
         <is>
@@ -48659,7 +48659,7 @@
         </is>
       </c>
       <c r="C2430" t="n">
-        <v>0.07199999999999999</v>
+        <v>0.07099999999999999</v>
       </c>
       <c r="D2430" t="inlineStr">
         <is>
@@ -53371,7 +53371,7 @@
         </is>
       </c>
       <c r="C2668" t="n">
-        <v>0.055</v>
+        <v>0.054</v>
       </c>
       <c r="D2668" t="inlineStr">
         <is>
@@ -53411,7 +53411,7 @@
         </is>
       </c>
       <c r="C2670" t="n">
-        <v>0.055</v>
+        <v>0.054</v>
       </c>
       <c r="D2670" t="inlineStr">
         <is>
@@ -53431,7 +53431,7 @@
         </is>
       </c>
       <c r="C2671" t="n">
-        <v>0.055</v>
+        <v>0.054</v>
       </c>
       <c r="D2671" t="inlineStr">
         <is>
@@ -57583,7 +57583,7 @@
         </is>
       </c>
       <c r="C2880" t="n">
-        <v>0.055</v>
+        <v>0.054</v>
       </c>
       <c r="D2880" t="inlineStr">
         <is>
@@ -57603,7 +57603,7 @@
         </is>
       </c>
       <c r="C2881" t="n">
-        <v>0.055</v>
+        <v>0.054</v>
       </c>
       <c r="D2881" t="inlineStr">
         <is>
@@ -57623,7 +57623,7 @@
         </is>
       </c>
       <c r="C2882" t="n">
-        <v>0.055</v>
+        <v>0.054</v>
       </c>
       <c r="D2882" t="inlineStr">
         <is>
@@ -57779,15 +57779,15 @@
       </c>
       <c r="B2890" t="inlineStr">
         <is>
-          <t>TOMADAS</t>
+          <t>ELETRICA</t>
         </is>
       </c>
       <c r="C2890" t="n">
-        <v>0.027</v>
+        <v>0.024</v>
       </c>
       <c r="D2890" t="inlineStr">
         <is>
-          <t>[('TOMADAS', 3.0)]</t>
+          <t>[('ELETRICA', 3.0), ('TOMADAS', 3.0)]</t>
         </is>
       </c>
     </row>
@@ -61987,7 +61987,7 @@
         </is>
       </c>
       <c r="C3102" t="n">
-        <v>0.055</v>
+        <v>0.054</v>
       </c>
       <c r="D3102" t="inlineStr">
         <is>
@@ -62007,7 +62007,7 @@
         </is>
       </c>
       <c r="C3103" t="n">
-        <v>0.055</v>
+        <v>0.054</v>
       </c>
       <c r="D3103" t="inlineStr">
         <is>
@@ -62027,7 +62027,7 @@
         </is>
       </c>
       <c r="C3104" t="n">
-        <v>0.055</v>
+        <v>0.054</v>
       </c>
       <c r="D3104" t="inlineStr">
         <is>
@@ -62047,7 +62047,7 @@
         </is>
       </c>
       <c r="C3105" t="n">
-        <v>0.055</v>
+        <v>0.054</v>
       </c>
       <c r="D3105" t="inlineStr">
         <is>
@@ -70667,7 +70667,7 @@
         </is>
       </c>
       <c r="C3542" t="n">
-        <v>0.063</v>
+        <v>0.062</v>
       </c>
       <c r="D3542" t="inlineStr">
         <is>
@@ -70719,7 +70719,7 @@
         </is>
       </c>
       <c r="C3545" t="n">
-        <v>0.063</v>
+        <v>0.062</v>
       </c>
       <c r="D3545" t="inlineStr">
         <is>
@@ -72251,7 +72251,7 @@
         </is>
       </c>
       <c r="C3623" t="n">
-        <v>0.008999999999999999</v>
+        <v>0.008</v>
       </c>
       <c r="D3623" t="inlineStr">
         <is>
@@ -72271,7 +72271,7 @@
         </is>
       </c>
       <c r="C3624" t="n">
-        <v>0.008999999999999999</v>
+        <v>0.008</v>
       </c>
       <c r="D3624" t="inlineStr">
         <is>
@@ -72291,7 +72291,7 @@
         </is>
       </c>
       <c r="C3625" t="n">
-        <v>0.008999999999999999</v>
+        <v>0.008</v>
       </c>
       <c r="D3625" t="inlineStr">
         <is>
@@ -72311,7 +72311,7 @@
         </is>
       </c>
       <c r="C3626" t="n">
-        <v>0.008999999999999999</v>
+        <v>0.008</v>
       </c>
       <c r="D3626" t="inlineStr">
         <is>
@@ -72331,7 +72331,7 @@
         </is>
       </c>
       <c r="C3627" t="n">
-        <v>0.008999999999999999</v>
+        <v>0.008</v>
       </c>
       <c r="D3627" t="inlineStr">
         <is>
@@ -72351,7 +72351,7 @@
         </is>
       </c>
       <c r="C3628" t="n">
-        <v>0.008999999999999999</v>
+        <v>0.008</v>
       </c>
       <c r="D3628" t="inlineStr">
         <is>
@@ -72371,7 +72371,7 @@
         </is>
       </c>
       <c r="C3629" t="n">
-        <v>0.008999999999999999</v>
+        <v>0.008</v>
       </c>
       <c r="D3629" t="inlineStr">
         <is>
@@ -72391,7 +72391,7 @@
         </is>
       </c>
       <c r="C3630" t="n">
-        <v>0.008999999999999999</v>
+        <v>0.008</v>
       </c>
       <c r="D3630" t="inlineStr">
         <is>
@@ -73131,7 +73131,7 @@
         </is>
       </c>
       <c r="C3667" t="n">
-        <v>0.055</v>
+        <v>0.054</v>
       </c>
       <c r="D3667" t="inlineStr">
         <is>

--- a/planilhas/outputs/Relatorio_Dominios_Ambiguos.xlsx
+++ b/planilhas/outputs/Relatorio_Dominios_Ambiguos.xlsx
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.038</v>
+        <v>0.037</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -747,7 +747,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.025</v>
+        <v>0.024</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2267,7 +2267,7 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>0.032</v>
+        <v>0.031</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -2367,7 +2367,7 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>0.019</v>
+        <v>0.018</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -2387,7 +2387,7 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>0.019</v>
+        <v>0.018</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>0.019</v>
+        <v>0.018</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -2427,7 +2427,7 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>0.038</v>
+        <v>0.037</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -2507,7 +2507,7 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>0.019</v>
+        <v>0.018</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -3043,7 +3043,7 @@
         </is>
       </c>
       <c r="C131" t="n">
-        <v>0.038</v>
+        <v>0.037</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -3063,7 +3063,7 @@
         </is>
       </c>
       <c r="C132" t="n">
-        <v>0.038</v>
+        <v>0.037</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -3183,7 +3183,7 @@
         </is>
       </c>
       <c r="C138" t="n">
-        <v>0.038</v>
+        <v>0.037</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="C150" t="n">
-        <v>0.032</v>
+        <v>0.031</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -4175,7 +4175,7 @@
         </is>
       </c>
       <c r="C188" t="n">
-        <v>0.038</v>
+        <v>0.037</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -4731,7 +4731,7 @@
         </is>
       </c>
       <c r="C216" t="n">
-        <v>0.038</v>
+        <v>0.037</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -4851,7 +4851,7 @@
         </is>
       </c>
       <c r="C222" t="n">
-        <v>0.019</v>
+        <v>0.018</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -5431,7 +5431,7 @@
         </is>
       </c>
       <c r="C251" t="n">
-        <v>0.019</v>
+        <v>0.018</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -6091,7 +6091,7 @@
         </is>
       </c>
       <c r="C284" t="n">
-        <v>0.025</v>
+        <v>0.024</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -6111,7 +6111,7 @@
         </is>
       </c>
       <c r="C285" t="n">
-        <v>0.025</v>
+        <v>0.024</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -6131,7 +6131,7 @@
         </is>
       </c>
       <c r="C286" t="n">
-        <v>0.025</v>
+        <v>0.024</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -6503,7 +6503,7 @@
         </is>
       </c>
       <c r="C305" t="n">
-        <v>0.019</v>
+        <v>0.018</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -6803,7 +6803,7 @@
         </is>
       </c>
       <c r="C320" t="n">
-        <v>0.019</v>
+        <v>0.018</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -6823,7 +6823,7 @@
         </is>
       </c>
       <c r="C321" t="n">
-        <v>0.019</v>
+        <v>0.018</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -6843,7 +6843,7 @@
         </is>
       </c>
       <c r="C322" t="n">
-        <v>0.019</v>
+        <v>0.018</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -7283,7 +7283,7 @@
         </is>
       </c>
       <c r="C344" t="n">
-        <v>0.019</v>
+        <v>0.018</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -7635,7 +7635,7 @@
         </is>
       </c>
       <c r="C362" t="n">
-        <v>0.019</v>
+        <v>0.018</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -10079,7 +10079,7 @@
         </is>
       </c>
       <c r="C485" t="n">
-        <v>0.019</v>
+        <v>0.018</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -12039,7 +12039,7 @@
         </is>
       </c>
       <c r="C583" t="n">
-        <v>0.019</v>
+        <v>0.018</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -12059,7 +12059,7 @@
         </is>
       </c>
       <c r="C584" t="n">
-        <v>0.019</v>
+        <v>0.018</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -12199,7 +12199,7 @@
         </is>
       </c>
       <c r="C591" t="n">
-        <v>0.019</v>
+        <v>0.018</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -12239,7 +12239,7 @@
         </is>
       </c>
       <c r="C593" t="n">
-        <v>0.019</v>
+        <v>0.018</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -13039,7 +13039,7 @@
         </is>
       </c>
       <c r="C633" t="n">
-        <v>0.019</v>
+        <v>0.018</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -13059,7 +13059,7 @@
         </is>
       </c>
       <c r="C634" t="n">
-        <v>0.019</v>
+        <v>0.018</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -13099,7 +13099,7 @@
         </is>
       </c>
       <c r="C636" t="n">
-        <v>0.038</v>
+        <v>0.037</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -13199,7 +13199,7 @@
         </is>
       </c>
       <c r="C641" t="n">
-        <v>0.038</v>
+        <v>0.037</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -13219,7 +13219,7 @@
         </is>
       </c>
       <c r="C642" t="n">
-        <v>0.038</v>
+        <v>0.037</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -13339,7 +13339,7 @@
         </is>
       </c>
       <c r="C648" t="n">
-        <v>0.019</v>
+        <v>0.018</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -13439,7 +13439,7 @@
         </is>
       </c>
       <c r="C653" t="n">
-        <v>0.019</v>
+        <v>0.018</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -13479,7 +13479,7 @@
         </is>
       </c>
       <c r="C655" t="n">
-        <v>0.038</v>
+        <v>0.037</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -14099,7 +14099,7 @@
         </is>
       </c>
       <c r="C686" t="n">
-        <v>0.038</v>
+        <v>0.037</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -15835,7 +15835,7 @@
         </is>
       </c>
       <c r="C773" t="n">
-        <v>0.032</v>
+        <v>0.031</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -15895,7 +15895,7 @@
         </is>
       </c>
       <c r="C776" t="n">
-        <v>0.032</v>
+        <v>0.031</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -15955,7 +15955,7 @@
         </is>
       </c>
       <c r="C779" t="n">
-        <v>0.032</v>
+        <v>0.031</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -16559,7 +16559,7 @@
         </is>
       </c>
       <c r="C810" t="n">
-        <v>0.032</v>
+        <v>0.031</v>
       </c>
       <c r="D810" t="inlineStr">
         <is>
@@ -16715,7 +16715,7 @@
         </is>
       </c>
       <c r="C818" t="n">
-        <v>0.038</v>
+        <v>0.037</v>
       </c>
       <c r="D818" t="inlineStr">
         <is>
@@ -16735,7 +16735,7 @@
         </is>
       </c>
       <c r="C819" t="n">
-        <v>0.038</v>
+        <v>0.037</v>
       </c>
       <c r="D819" t="inlineStr">
         <is>
@@ -16755,7 +16755,7 @@
         </is>
       </c>
       <c r="C820" t="n">
-        <v>0.019</v>
+        <v>0.018</v>
       </c>
       <c r="D820" t="inlineStr">
         <is>
@@ -19007,7 +19007,7 @@
         </is>
       </c>
       <c r="C934" t="n">
-        <v>0.019</v>
+        <v>0.018</v>
       </c>
       <c r="D934" t="inlineStr">
         <is>
@@ -19027,7 +19027,7 @@
         </is>
       </c>
       <c r="C935" t="n">
-        <v>0.019</v>
+        <v>0.018</v>
       </c>
       <c r="D935" t="inlineStr">
         <is>
@@ -19047,7 +19047,7 @@
         </is>
       </c>
       <c r="C936" t="n">
-        <v>0.019</v>
+        <v>0.018</v>
       </c>
       <c r="D936" t="inlineStr">
         <is>
@@ -19163,7 +19163,7 @@
         </is>
       </c>
       <c r="C942" t="n">
-        <v>0.038</v>
+        <v>0.037</v>
       </c>
       <c r="D942" t="inlineStr">
         <is>
@@ -19183,7 +19183,7 @@
         </is>
       </c>
       <c r="C943" t="n">
-        <v>0.019</v>
+        <v>0.018</v>
       </c>
       <c r="D943" t="inlineStr">
         <is>
@@ -19203,7 +19203,7 @@
         </is>
       </c>
       <c r="C944" t="n">
-        <v>0.019</v>
+        <v>0.018</v>
       </c>
       <c r="D944" t="inlineStr">
         <is>
@@ -19239,7 +19239,7 @@
         </is>
       </c>
       <c r="C946" t="n">
-        <v>0.025</v>
+        <v>0.024</v>
       </c>
       <c r="D946" t="inlineStr">
         <is>
@@ -19311,7 +19311,7 @@
         </is>
       </c>
       <c r="C950" t="n">
-        <v>0.019</v>
+        <v>0.018</v>
       </c>
       <c r="D950" t="inlineStr">
         <is>
@@ -21535,7 +21535,7 @@
         </is>
       </c>
       <c r="C1062" t="n">
-        <v>0.019</v>
+        <v>0.018</v>
       </c>
       <c r="D1062" t="inlineStr">
         <is>
@@ -21559,7 +21559,7 @@
       </c>
       <c r="D1063" t="inlineStr">
         <is>
-          <t>[('TOMADAS', 3.0)]</t>
+          <t>[('TOMADAS', 3.0), ('HIDRAULICA', 0.96875)]</t>
         </is>
       </c>
     </row>
@@ -21579,7 +21579,7 @@
       </c>
       <c r="D1064" t="inlineStr">
         <is>
-          <t>[('TOMADAS', 3.0)]</t>
+          <t>[('TOMADAS', 3.0), ('HIDRAULICA', 0.9736842105263157)]</t>
         </is>
       </c>
     </row>
@@ -21599,7 +21599,7 @@
       </c>
       <c r="D1065" t="inlineStr">
         <is>
-          <t>[('TOMADAS', 3.0)]</t>
+          <t>[('TOMADAS', 3.0), ('HIDRAULICA', 0.9736842105263157)]</t>
         </is>
       </c>
     </row>
@@ -21615,7 +21615,7 @@
         </is>
       </c>
       <c r="C1066" t="n">
-        <v>0.019</v>
+        <v>0.018</v>
       </c>
       <c r="D1066" t="inlineStr">
         <is>
@@ -21987,7 +21987,7 @@
         </is>
       </c>
       <c r="C1085" t="n">
-        <v>0.032</v>
+        <v>0.031</v>
       </c>
       <c r="D1085" t="inlineStr">
         <is>
@@ -23395,7 +23395,7 @@
         </is>
       </c>
       <c r="C1157" t="n">
-        <v>0.019</v>
+        <v>0.018</v>
       </c>
       <c r="D1157" t="inlineStr">
         <is>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="C1158" t="n">
-        <v>0.019</v>
+        <v>0.018</v>
       </c>
       <c r="D1158" t="inlineStr">
         <is>
@@ -23455,7 +23455,7 @@
         </is>
       </c>
       <c r="C1160" t="n">
-        <v>0.038</v>
+        <v>0.037</v>
       </c>
       <c r="D1160" t="inlineStr">
         <is>
@@ -23475,7 +23475,7 @@
         </is>
       </c>
       <c r="C1161" t="n">
-        <v>0.019</v>
+        <v>0.018</v>
       </c>
       <c r="D1161" t="inlineStr">
         <is>
@@ -23495,7 +23495,7 @@
         </is>
       </c>
       <c r="C1162" t="n">
-        <v>0.019</v>
+        <v>0.018</v>
       </c>
       <c r="D1162" t="inlineStr">
         <is>
@@ -23515,7 +23515,7 @@
         </is>
       </c>
       <c r="C1163" t="n">
-        <v>0.019</v>
+        <v>0.018</v>
       </c>
       <c r="D1163" t="inlineStr">
         <is>
@@ -23535,7 +23535,7 @@
         </is>
       </c>
       <c r="C1164" t="n">
-        <v>0.038</v>
+        <v>0.037</v>
       </c>
       <c r="D1164" t="inlineStr">
         <is>
@@ -23555,7 +23555,7 @@
         </is>
       </c>
       <c r="C1165" t="n">
-        <v>0.019</v>
+        <v>0.018</v>
       </c>
       <c r="D1165" t="inlineStr">
         <is>
@@ -23575,7 +23575,7 @@
         </is>
       </c>
       <c r="C1166" t="n">
-        <v>0.038</v>
+        <v>0.037</v>
       </c>
       <c r="D1166" t="inlineStr">
         <is>
@@ -23635,7 +23635,7 @@
         </is>
       </c>
       <c r="C1169" t="n">
-        <v>0.038</v>
+        <v>0.037</v>
       </c>
       <c r="D1169" t="inlineStr">
         <is>
@@ -23675,7 +23675,7 @@
         </is>
       </c>
       <c r="C1171" t="n">
-        <v>0.019</v>
+        <v>0.018</v>
       </c>
       <c r="D1171" t="inlineStr">
         <is>
@@ -24015,7 +24015,7 @@
         </is>
       </c>
       <c r="C1188" t="n">
-        <v>0.038</v>
+        <v>0.037</v>
       </c>
       <c r="D1188" t="inlineStr">
         <is>
@@ -24035,7 +24035,7 @@
         </is>
       </c>
       <c r="C1189" t="n">
-        <v>0.019</v>
+        <v>0.018</v>
       </c>
       <c r="D1189" t="inlineStr">
         <is>
@@ -24055,7 +24055,7 @@
         </is>
       </c>
       <c r="C1190" t="n">
-        <v>0.031</v>
+        <v>0.03</v>
       </c>
       <c r="D1190" t="inlineStr">
         <is>
@@ -24075,7 +24075,7 @@
         </is>
       </c>
       <c r="C1191" t="n">
-        <v>0.031</v>
+        <v>0.03</v>
       </c>
       <c r="D1191" t="inlineStr">
         <is>
@@ -24115,7 +24115,7 @@
         </is>
       </c>
       <c r="C1193" t="n">
-        <v>0.038</v>
+        <v>0.037</v>
       </c>
       <c r="D1193" t="inlineStr">
         <is>
@@ -24135,7 +24135,7 @@
         </is>
       </c>
       <c r="C1194" t="n">
-        <v>0.038</v>
+        <v>0.037</v>
       </c>
       <c r="D1194" t="inlineStr">
         <is>
@@ -24155,7 +24155,7 @@
         </is>
       </c>
       <c r="C1195" t="n">
-        <v>0.057</v>
+        <v>0.055</v>
       </c>
       <c r="D1195" t="inlineStr">
         <is>
@@ -24175,7 +24175,7 @@
         </is>
       </c>
       <c r="C1196" t="n">
-        <v>0.019</v>
+        <v>0.018</v>
       </c>
       <c r="D1196" t="inlineStr">
         <is>
@@ -24275,7 +24275,7 @@
         </is>
       </c>
       <c r="C1201" t="n">
-        <v>0.019</v>
+        <v>0.018</v>
       </c>
       <c r="D1201" t="inlineStr">
         <is>
@@ -24295,7 +24295,7 @@
         </is>
       </c>
       <c r="C1202" t="n">
-        <v>0.019</v>
+        <v>0.018</v>
       </c>
       <c r="D1202" t="inlineStr">
         <is>
@@ -24315,7 +24315,7 @@
         </is>
       </c>
       <c r="C1203" t="n">
-        <v>0.019</v>
+        <v>0.018</v>
       </c>
       <c r="D1203" t="inlineStr">
         <is>
@@ -24335,7 +24335,7 @@
         </is>
       </c>
       <c r="C1204" t="n">
-        <v>0.019</v>
+        <v>0.018</v>
       </c>
       <c r="D1204" t="inlineStr">
         <is>
@@ -26631,7 +26631,7 @@
         </is>
       </c>
       <c r="C1319" t="n">
-        <v>0.038</v>
+        <v>0.037</v>
       </c>
       <c r="D1319" t="inlineStr">
         <is>
@@ -28147,7 +28147,7 @@
         </is>
       </c>
       <c r="C1395" t="n">
-        <v>0.025</v>
+        <v>0.024</v>
       </c>
       <c r="D1395" t="inlineStr">
         <is>
@@ -28227,7 +28227,7 @@
         </is>
       </c>
       <c r="C1399" t="n">
-        <v>0.019</v>
+        <v>0.018</v>
       </c>
       <c r="D1399" t="inlineStr">
         <is>
@@ -28247,7 +28247,7 @@
         </is>
       </c>
       <c r="C1400" t="n">
-        <v>0.019</v>
+        <v>0.018</v>
       </c>
       <c r="D1400" t="inlineStr">
         <is>
@@ -28287,7 +28287,7 @@
         </is>
       </c>
       <c r="C1402" t="n">
-        <v>0.019</v>
+        <v>0.018</v>
       </c>
       <c r="D1402" t="inlineStr">
         <is>
@@ -28307,7 +28307,7 @@
         </is>
       </c>
       <c r="C1403" t="n">
-        <v>0.019</v>
+        <v>0.018</v>
       </c>
       <c r="D1403" t="inlineStr">
         <is>
@@ -28327,7 +28327,7 @@
         </is>
       </c>
       <c r="C1404" t="n">
-        <v>0.019</v>
+        <v>0.018</v>
       </c>
       <c r="D1404" t="inlineStr">
         <is>
@@ -28347,7 +28347,7 @@
         </is>
       </c>
       <c r="C1405" t="n">
-        <v>0.019</v>
+        <v>0.018</v>
       </c>
       <c r="D1405" t="inlineStr">
         <is>
@@ -29907,7 +29907,7 @@
         </is>
       </c>
       <c r="C1484" t="n">
-        <v>0.038</v>
+        <v>0.037</v>
       </c>
       <c r="D1484" t="inlineStr">
         <is>
@@ -29927,7 +29927,7 @@
         </is>
       </c>
       <c r="C1485" t="n">
-        <v>0.038</v>
+        <v>0.037</v>
       </c>
       <c r="D1485" t="inlineStr">
         <is>
@@ -33995,7 +33995,7 @@
         </is>
       </c>
       <c r="C1689" t="n">
-        <v>0.063</v>
+        <v>0.06</v>
       </c>
       <c r="D1689" t="inlineStr">
         <is>
@@ -34015,7 +34015,7 @@
         </is>
       </c>
       <c r="C1690" t="n">
-        <v>0.032</v>
+        <v>0.031</v>
       </c>
       <c r="D1690" t="inlineStr">
         <is>
@@ -35739,7 +35739,7 @@
         </is>
       </c>
       <c r="C1777" t="n">
-        <v>0.032</v>
+        <v>0.031</v>
       </c>
       <c r="D1777" t="inlineStr">
         <is>
@@ -36187,7 +36187,7 @@
         </is>
       </c>
       <c r="C1800" t="n">
-        <v>0.008</v>
+        <v>0.007</v>
       </c>
       <c r="D1800" t="inlineStr">
         <is>
@@ -37507,7 +37507,7 @@
         </is>
       </c>
       <c r="C1866" t="n">
-        <v>0.038</v>
+        <v>0.037</v>
       </c>
       <c r="D1866" t="inlineStr">
         <is>
@@ -37527,7 +37527,7 @@
         </is>
       </c>
       <c r="C1867" t="n">
-        <v>0.038</v>
+        <v>0.037</v>
       </c>
       <c r="D1867" t="inlineStr">
         <is>
@@ -37579,7 +37579,7 @@
         </is>
       </c>
       <c r="C1870" t="n">
-        <v>0.019</v>
+        <v>0.018</v>
       </c>
       <c r="D1870" t="inlineStr">
         <is>
@@ -37599,7 +37599,7 @@
         </is>
       </c>
       <c r="C1871" t="n">
-        <v>0.019</v>
+        <v>0.018</v>
       </c>
       <c r="D1871" t="inlineStr">
         <is>
@@ -38995,7 +38995,7 @@
         </is>
       </c>
       <c r="C1942" t="n">
-        <v>0.019</v>
+        <v>0.018</v>
       </c>
       <c r="D1942" t="inlineStr">
         <is>
@@ -39055,7 +39055,7 @@
         </is>
       </c>
       <c r="C1945" t="n">
-        <v>0.038</v>
+        <v>0.037</v>
       </c>
       <c r="D1945" t="inlineStr">
         <is>
@@ -39167,7 +39167,7 @@
         </is>
       </c>
       <c r="C1951" t="n">
-        <v>0.019</v>
+        <v>0.018</v>
       </c>
       <c r="D1951" t="inlineStr">
         <is>
@@ -39187,7 +39187,7 @@
         </is>
       </c>
       <c r="C1952" t="n">
-        <v>0.019</v>
+        <v>0.018</v>
       </c>
       <c r="D1952" t="inlineStr">
         <is>
@@ -39227,7 +39227,7 @@
         </is>
       </c>
       <c r="C1954" t="n">
-        <v>0.038</v>
+        <v>0.037</v>
       </c>
       <c r="D1954" t="inlineStr">
         <is>
@@ -39287,7 +39287,7 @@
         </is>
       </c>
       <c r="C1957" t="n">
-        <v>0.038</v>
+        <v>0.037</v>
       </c>
       <c r="D1957" t="inlineStr">
         <is>
@@ -39367,7 +39367,7 @@
         </is>
       </c>
       <c r="C1961" t="n">
-        <v>0.019</v>
+        <v>0.018</v>
       </c>
       <c r="D1961" t="inlineStr">
         <is>
@@ -39387,7 +39387,7 @@
         </is>
       </c>
       <c r="C1962" t="n">
-        <v>0.019</v>
+        <v>0.018</v>
       </c>
       <c r="D1962" t="inlineStr">
         <is>
@@ -39407,7 +39407,7 @@
         </is>
       </c>
       <c r="C1963" t="n">
-        <v>0.019</v>
+        <v>0.018</v>
       </c>
       <c r="D1963" t="inlineStr">
         <is>
@@ -39467,7 +39467,7 @@
         </is>
       </c>
       <c r="C1966" t="n">
-        <v>0.019</v>
+        <v>0.018</v>
       </c>
       <c r="D1966" t="inlineStr">
         <is>
@@ -39487,7 +39487,7 @@
         </is>
       </c>
       <c r="C1967" t="n">
-        <v>0.019</v>
+        <v>0.018</v>
       </c>
       <c r="D1967" t="inlineStr">
         <is>
@@ -39507,7 +39507,7 @@
         </is>
       </c>
       <c r="C1968" t="n">
-        <v>0.038</v>
+        <v>0.037</v>
       </c>
       <c r="D1968" t="inlineStr">
         <is>
@@ -39527,7 +39527,7 @@
         </is>
       </c>
       <c r="C1969" t="n">
-        <v>0.038</v>
+        <v>0.037</v>
       </c>
       <c r="D1969" t="inlineStr">
         <is>
@@ -39547,7 +39547,7 @@
         </is>
       </c>
       <c r="C1970" t="n">
-        <v>0.038</v>
+        <v>0.037</v>
       </c>
       <c r="D1970" t="inlineStr">
         <is>
@@ -39567,7 +39567,7 @@
         </is>
       </c>
       <c r="C1971" t="n">
-        <v>0.038</v>
+        <v>0.037</v>
       </c>
       <c r="D1971" t="inlineStr">
         <is>
@@ -39587,7 +39587,7 @@
         </is>
       </c>
       <c r="C1972" t="n">
-        <v>0.038</v>
+        <v>0.037</v>
       </c>
       <c r="D1972" t="inlineStr">
         <is>
@@ -39607,7 +39607,7 @@
         </is>
       </c>
       <c r="C1973" t="n">
-        <v>0.038</v>
+        <v>0.037</v>
       </c>
       <c r="D1973" t="inlineStr">
         <is>
@@ -39627,7 +39627,7 @@
         </is>
       </c>
       <c r="C1974" t="n">
-        <v>0.038</v>
+        <v>0.037</v>
       </c>
       <c r="D1974" t="inlineStr">
         <is>
@@ -39687,7 +39687,7 @@
         </is>
       </c>
       <c r="C1977" t="n">
-        <v>0.038</v>
+        <v>0.037</v>
       </c>
       <c r="D1977" t="inlineStr">
         <is>
@@ -39851,7 +39851,7 @@
         </is>
       </c>
       <c r="C1986" t="n">
-        <v>0.019</v>
+        <v>0.018</v>
       </c>
       <c r="D1986" t="inlineStr">
         <is>
@@ -39871,7 +39871,7 @@
         </is>
       </c>
       <c r="C1987" t="n">
-        <v>0.019</v>
+        <v>0.018</v>
       </c>
       <c r="D1987" t="inlineStr">
         <is>
@@ -39891,7 +39891,7 @@
         </is>
       </c>
       <c r="C1988" t="n">
-        <v>0.019</v>
+        <v>0.018</v>
       </c>
       <c r="D1988" t="inlineStr">
         <is>
@@ -42095,7 +42095,7 @@
         </is>
       </c>
       <c r="C2100" t="n">
-        <v>0.032</v>
+        <v>0.031</v>
       </c>
       <c r="D2100" t="inlineStr">
         <is>
@@ -43215,7 +43215,7 @@
         </is>
       </c>
       <c r="C2156" t="n">
-        <v>0.019</v>
+        <v>0.018</v>
       </c>
       <c r="D2156" t="inlineStr">
         <is>
@@ -43235,7 +43235,7 @@
         </is>
       </c>
       <c r="C2157" t="n">
-        <v>0.019</v>
+        <v>0.018</v>
       </c>
       <c r="D2157" t="inlineStr">
         <is>
@@ -43255,7 +43255,7 @@
         </is>
       </c>
       <c r="C2158" t="n">
-        <v>0.019</v>
+        <v>0.018</v>
       </c>
       <c r="D2158" t="inlineStr">
         <is>
@@ -44439,7 +44439,7 @@
         </is>
       </c>
       <c r="C2218" t="n">
-        <v>0.038</v>
+        <v>0.037</v>
       </c>
       <c r="D2218" t="inlineStr">
         <is>
@@ -44459,7 +44459,7 @@
         </is>
       </c>
       <c r="C2219" t="n">
-        <v>0.038</v>
+        <v>0.037</v>
       </c>
       <c r="D2219" t="inlineStr">
         <is>
@@ -44599,7 +44599,7 @@
         </is>
       </c>
       <c r="C2226" t="n">
-        <v>0.019</v>
+        <v>0.018</v>
       </c>
       <c r="D2226" t="inlineStr">
         <is>
@@ -46651,7 +46651,7 @@
         </is>
       </c>
       <c r="C2329" t="n">
-        <v>0.019</v>
+        <v>0.018</v>
       </c>
       <c r="D2329" t="inlineStr">
         <is>
@@ -46671,7 +46671,7 @@
         </is>
       </c>
       <c r="C2330" t="n">
-        <v>0.019</v>
+        <v>0.018</v>
       </c>
       <c r="D2330" t="inlineStr">
         <is>
@@ -46691,7 +46691,7 @@
         </is>
       </c>
       <c r="C2331" t="n">
-        <v>0.019</v>
+        <v>0.018</v>
       </c>
       <c r="D2331" t="inlineStr">
         <is>
@@ -46711,7 +46711,7 @@
         </is>
       </c>
       <c r="C2332" t="n">
-        <v>0.019</v>
+        <v>0.018</v>
       </c>
       <c r="D2332" t="inlineStr">
         <is>
@@ -46731,7 +46731,7 @@
         </is>
       </c>
       <c r="C2333" t="n">
-        <v>0.019</v>
+        <v>0.018</v>
       </c>
       <c r="D2333" t="inlineStr">
         <is>
@@ -46751,7 +46751,7 @@
         </is>
       </c>
       <c r="C2334" t="n">
-        <v>0.038</v>
+        <v>0.037</v>
       </c>
       <c r="D2334" t="inlineStr">
         <is>
@@ -46771,7 +46771,7 @@
         </is>
       </c>
       <c r="C2335" t="n">
-        <v>0.019</v>
+        <v>0.018</v>
       </c>
       <c r="D2335" t="inlineStr">
         <is>
@@ -46791,7 +46791,7 @@
         </is>
       </c>
       <c r="C2336" t="n">
-        <v>0.019</v>
+        <v>0.018</v>
       </c>
       <c r="D2336" t="inlineStr">
         <is>
@@ -46811,7 +46811,7 @@
         </is>
       </c>
       <c r="C2337" t="n">
-        <v>0.019</v>
+        <v>0.018</v>
       </c>
       <c r="D2337" t="inlineStr">
         <is>
@@ -47427,7 +47427,7 @@
         </is>
       </c>
       <c r="C2368" t="n">
-        <v>0.019</v>
+        <v>0.018</v>
       </c>
       <c r="D2368" t="inlineStr">
         <is>
@@ -47763,7 +47763,7 @@
         </is>
       </c>
       <c r="C2385" t="n">
-        <v>0.019</v>
+        <v>0.018</v>
       </c>
       <c r="D2385" t="inlineStr">
         <is>
@@ -47783,7 +47783,7 @@
         </is>
       </c>
       <c r="C2386" t="n">
-        <v>0.038</v>
+        <v>0.037</v>
       </c>
       <c r="D2386" t="inlineStr">
         <is>
@@ -47803,7 +47803,7 @@
         </is>
       </c>
       <c r="C2387" t="n">
-        <v>0.038</v>
+        <v>0.037</v>
       </c>
       <c r="D2387" t="inlineStr">
         <is>
@@ -47903,7 +47903,7 @@
         </is>
       </c>
       <c r="C2392" t="n">
-        <v>0.019</v>
+        <v>0.018</v>
       </c>
       <c r="D2392" t="inlineStr">
         <is>
@@ -48875,7 +48875,7 @@
       </c>
       <c r="B2441" t="inlineStr">
         <is>
-          <t>TOMADAS</t>
+          <t>ELETRICA</t>
         </is>
       </c>
       <c r="C2441" t="n">
@@ -48883,7 +48883,7 @@
       </c>
       <c r="D2441" t="inlineStr">
         <is>
-          <t>[('TOMADAS', 0.9090909090909091)]</t>
+          <t>[('ELETRICA', 0.9642857142857143), ('TOMADAS', 0.9090909090909091)]</t>
         </is>
       </c>
     </row>
@@ -49751,7 +49751,7 @@
         </is>
       </c>
       <c r="C2485" t="n">
-        <v>0.038</v>
+        <v>0.037</v>
       </c>
       <c r="D2485" t="inlineStr">
         <is>
@@ -50359,7 +50359,7 @@
         </is>
       </c>
       <c r="C2517" t="n">
-        <v>0.032</v>
+        <v>0.031</v>
       </c>
       <c r="D2517" t="inlineStr">
         <is>
@@ -50379,7 +50379,7 @@
         </is>
       </c>
       <c r="C2518" t="n">
-        <v>0.032</v>
+        <v>0.031</v>
       </c>
       <c r="D2518" t="inlineStr">
         <is>
@@ -50795,7 +50795,7 @@
         </is>
       </c>
       <c r="C2539" t="n">
-        <v>0.032</v>
+        <v>0.031</v>
       </c>
       <c r="D2539" t="inlineStr">
         <is>
@@ -50815,7 +50815,7 @@
         </is>
       </c>
       <c r="C2540" t="n">
-        <v>0.032</v>
+        <v>0.031</v>
       </c>
       <c r="D2540" t="inlineStr">
         <is>
@@ -50835,7 +50835,7 @@
         </is>
       </c>
       <c r="C2541" t="n">
-        <v>0.032</v>
+        <v>0.031</v>
       </c>
       <c r="D2541" t="inlineStr">
         <is>
@@ -50875,7 +50875,7 @@
         </is>
       </c>
       <c r="C2543" t="n">
-        <v>0.015</v>
+        <v>0.014</v>
       </c>
       <c r="D2543" t="inlineStr">
         <is>
@@ -51495,7 +51495,7 @@
         </is>
       </c>
       <c r="C2574" t="n">
-        <v>0.038</v>
+        <v>0.037</v>
       </c>
       <c r="D2574" t="inlineStr">
         <is>
@@ -51515,7 +51515,7 @@
         </is>
       </c>
       <c r="C2575" t="n">
-        <v>0.038</v>
+        <v>0.037</v>
       </c>
       <c r="D2575" t="inlineStr">
         <is>
@@ -51535,7 +51535,7 @@
         </is>
       </c>
       <c r="C2576" t="n">
-        <v>0.038</v>
+        <v>0.037</v>
       </c>
       <c r="D2576" t="inlineStr">
         <is>
@@ -51555,7 +51555,7 @@
         </is>
       </c>
       <c r="C2577" t="n">
-        <v>0.038</v>
+        <v>0.037</v>
       </c>
       <c r="D2577" t="inlineStr">
         <is>
@@ -51575,7 +51575,7 @@
         </is>
       </c>
       <c r="C2578" t="n">
-        <v>0.038</v>
+        <v>0.037</v>
       </c>
       <c r="D2578" t="inlineStr">
         <is>
@@ -51595,7 +51595,7 @@
         </is>
       </c>
       <c r="C2579" t="n">
-        <v>0.038</v>
+        <v>0.037</v>
       </c>
       <c r="D2579" t="inlineStr">
         <is>
@@ -51615,7 +51615,7 @@
         </is>
       </c>
       <c r="C2580" t="n">
-        <v>0.038</v>
+        <v>0.037</v>
       </c>
       <c r="D2580" t="inlineStr">
         <is>
@@ -54575,7 +54575,7 @@
         </is>
       </c>
       <c r="C2729" t="n">
-        <v>0.038</v>
+        <v>0.037</v>
       </c>
       <c r="D2729" t="inlineStr">
         <is>
@@ -54595,7 +54595,7 @@
         </is>
       </c>
       <c r="C2730" t="n">
-        <v>0.019</v>
+        <v>0.018</v>
       </c>
       <c r="D2730" t="inlineStr">
         <is>
@@ -54615,7 +54615,7 @@
         </is>
       </c>
       <c r="C2731" t="n">
-        <v>0.019</v>
+        <v>0.018</v>
       </c>
       <c r="D2731" t="inlineStr">
         <is>
@@ -54635,7 +54635,7 @@
         </is>
       </c>
       <c r="C2732" t="n">
-        <v>0.038</v>
+        <v>0.037</v>
       </c>
       <c r="D2732" t="inlineStr">
         <is>
@@ -54655,7 +54655,7 @@
         </is>
       </c>
       <c r="C2733" t="n">
-        <v>0.038</v>
+        <v>0.037</v>
       </c>
       <c r="D2733" t="inlineStr">
         <is>
@@ -57203,7 +57203,7 @@
         </is>
       </c>
       <c r="C2861" t="n">
-        <v>0.038</v>
+        <v>0.037</v>
       </c>
       <c r="D2861" t="inlineStr">
         <is>
@@ -57223,7 +57223,7 @@
         </is>
       </c>
       <c r="C2862" t="n">
-        <v>0.019</v>
+        <v>0.018</v>
       </c>
       <c r="D2862" t="inlineStr">
         <is>
@@ -57263,7 +57263,7 @@
         </is>
       </c>
       <c r="C2864" t="n">
-        <v>0.019</v>
+        <v>0.018</v>
       </c>
       <c r="D2864" t="inlineStr">
         <is>
@@ -57283,7 +57283,7 @@
         </is>
       </c>
       <c r="C2865" t="n">
-        <v>0.019</v>
+        <v>0.018</v>
       </c>
       <c r="D2865" t="inlineStr">
         <is>
@@ -57343,7 +57343,7 @@
         </is>
       </c>
       <c r="C2868" t="n">
-        <v>0.019</v>
+        <v>0.018</v>
       </c>
       <c r="D2868" t="inlineStr">
         <is>
@@ -57403,7 +57403,7 @@
         </is>
       </c>
       <c r="C2871" t="n">
-        <v>0.019</v>
+        <v>0.018</v>
       </c>
       <c r="D2871" t="inlineStr">
         <is>
@@ -57443,7 +57443,7 @@
         </is>
       </c>
       <c r="C2873" t="n">
-        <v>0.019</v>
+        <v>0.018</v>
       </c>
       <c r="D2873" t="inlineStr">
         <is>
@@ -58603,7 +58603,7 @@
         </is>
       </c>
       <c r="C2932" t="n">
-        <v>0.038</v>
+        <v>0.037</v>
       </c>
       <c r="D2932" t="inlineStr">
         <is>
@@ -58623,7 +58623,7 @@
         </is>
       </c>
       <c r="C2933" t="n">
-        <v>0.038</v>
+        <v>0.037</v>
       </c>
       <c r="D2933" t="inlineStr">
         <is>
@@ -58643,7 +58643,7 @@
         </is>
       </c>
       <c r="C2934" t="n">
-        <v>0.038</v>
+        <v>0.037</v>
       </c>
       <c r="D2934" t="inlineStr">
         <is>
@@ -58663,7 +58663,7 @@
         </is>
       </c>
       <c r="C2935" t="n">
-        <v>0.038</v>
+        <v>0.037</v>
       </c>
       <c r="D2935" t="inlineStr">
         <is>
@@ -58683,7 +58683,7 @@
         </is>
       </c>
       <c r="C2936" t="n">
-        <v>0.038</v>
+        <v>0.037</v>
       </c>
       <c r="D2936" t="inlineStr">
         <is>
@@ -58703,7 +58703,7 @@
         </is>
       </c>
       <c r="C2937" t="n">
-        <v>0.038</v>
+        <v>0.037</v>
       </c>
       <c r="D2937" t="inlineStr">
         <is>
@@ -58723,7 +58723,7 @@
         </is>
       </c>
       <c r="C2938" t="n">
-        <v>0.038</v>
+        <v>0.037</v>
       </c>
       <c r="D2938" t="inlineStr">
         <is>
@@ -59163,7 +59163,7 @@
         </is>
       </c>
       <c r="C2960" t="n">
-        <v>0.019</v>
+        <v>0.018</v>
       </c>
       <c r="D2960" t="inlineStr">
         <is>
@@ -59343,7 +59343,7 @@
         </is>
       </c>
       <c r="C2969" t="n">
-        <v>0.057</v>
+        <v>0.055</v>
       </c>
       <c r="D2969" t="inlineStr">
         <is>
@@ -59363,7 +59363,7 @@
         </is>
       </c>
       <c r="C2970" t="n">
-        <v>0.038</v>
+        <v>0.037</v>
       </c>
       <c r="D2970" t="inlineStr">
         <is>
@@ -59423,7 +59423,7 @@
         </is>
       </c>
       <c r="C2973" t="n">
-        <v>0.019</v>
+        <v>0.018</v>
       </c>
       <c r="D2973" t="inlineStr">
         <is>
@@ -59463,7 +59463,7 @@
         </is>
       </c>
       <c r="C2975" t="n">
-        <v>0.038</v>
+        <v>0.037</v>
       </c>
       <c r="D2975" t="inlineStr">
         <is>
@@ -59483,7 +59483,7 @@
         </is>
       </c>
       <c r="C2976" t="n">
-        <v>0.038</v>
+        <v>0.037</v>
       </c>
       <c r="D2976" t="inlineStr">
         <is>
@@ -59523,7 +59523,7 @@
         </is>
       </c>
       <c r="C2978" t="n">
-        <v>0.044</v>
+        <v>0.042</v>
       </c>
       <c r="D2978" t="inlineStr">
         <is>
@@ -59999,7 +59999,7 @@
         </is>
       </c>
       <c r="C3002" t="n">
-        <v>0.038</v>
+        <v>0.037</v>
       </c>
       <c r="D3002" t="inlineStr">
         <is>
@@ -60019,7 +60019,7 @@
         </is>
       </c>
       <c r="C3003" t="n">
-        <v>0.006</v>
+        <v>0.005</v>
       </c>
       <c r="D3003" t="inlineStr">
         <is>
@@ -60039,7 +60039,7 @@
         </is>
       </c>
       <c r="C3004" t="n">
-        <v>0.006</v>
+        <v>0.005</v>
       </c>
       <c r="D3004" t="inlineStr">
         <is>
@@ -60059,7 +60059,7 @@
         </is>
       </c>
       <c r="C3005" t="n">
-        <v>0.006</v>
+        <v>0.005</v>
       </c>
       <c r="D3005" t="inlineStr">
         <is>
@@ -60079,7 +60079,7 @@
         </is>
       </c>
       <c r="C3006" t="n">
-        <v>0.006</v>
+        <v>0.005</v>
       </c>
       <c r="D3006" t="inlineStr">
         <is>
@@ -60099,7 +60099,7 @@
         </is>
       </c>
       <c r="C3007" t="n">
-        <v>0.006</v>
+        <v>0.005</v>
       </c>
       <c r="D3007" t="inlineStr">
         <is>
@@ -60299,7 +60299,7 @@
         </is>
       </c>
       <c r="C3017" t="n">
-        <v>0.025</v>
+        <v>0.024</v>
       </c>
       <c r="D3017" t="inlineStr">
         <is>
@@ -62407,7 +62407,7 @@
         </is>
       </c>
       <c r="C3123" t="n">
-        <v>0.019</v>
+        <v>0.018</v>
       </c>
       <c r="D3123" t="inlineStr">
         <is>
@@ -62467,7 +62467,7 @@
         </is>
       </c>
       <c r="C3126" t="n">
-        <v>0.019</v>
+        <v>0.018</v>
       </c>
       <c r="D3126" t="inlineStr">
         <is>
@@ -62487,7 +62487,7 @@
         </is>
       </c>
       <c r="C3127" t="n">
-        <v>0.019</v>
+        <v>0.018</v>
       </c>
       <c r="D3127" t="inlineStr">
         <is>
@@ -62507,7 +62507,7 @@
         </is>
       </c>
       <c r="C3128" t="n">
-        <v>0.019</v>
+        <v>0.018</v>
       </c>
       <c r="D3128" t="inlineStr">
         <is>
@@ -62527,7 +62527,7 @@
         </is>
       </c>
       <c r="C3129" t="n">
-        <v>0.019</v>
+        <v>0.018</v>
       </c>
       <c r="D3129" t="inlineStr">
         <is>
@@ -62547,7 +62547,7 @@
         </is>
       </c>
       <c r="C3130" t="n">
-        <v>0.019</v>
+        <v>0.018</v>
       </c>
       <c r="D3130" t="inlineStr">
         <is>
@@ -62567,7 +62567,7 @@
         </is>
       </c>
       <c r="C3131" t="n">
-        <v>0.019</v>
+        <v>0.018</v>
       </c>
       <c r="D3131" t="inlineStr">
         <is>
@@ -62587,7 +62587,7 @@
         </is>
       </c>
       <c r="C3132" t="n">
-        <v>0.019</v>
+        <v>0.018</v>
       </c>
       <c r="D3132" t="inlineStr">
         <is>
@@ -63651,7 +63651,7 @@
         </is>
       </c>
       <c r="C3187" t="n">
-        <v>0.019</v>
+        <v>0.018</v>
       </c>
       <c r="D3187" t="inlineStr">
         <is>
@@ -63671,7 +63671,7 @@
         </is>
       </c>
       <c r="C3188" t="n">
-        <v>0.019</v>
+        <v>0.018</v>
       </c>
       <c r="D3188" t="inlineStr">
         <is>
@@ -63691,7 +63691,7 @@
         </is>
       </c>
       <c r="C3189" t="n">
-        <v>0.019</v>
+        <v>0.018</v>
       </c>
       <c r="D3189" t="inlineStr">
         <is>
@@ -63751,7 +63751,7 @@
         </is>
       </c>
       <c r="C3192" t="n">
-        <v>0.019</v>
+        <v>0.018</v>
       </c>
       <c r="D3192" t="inlineStr">
         <is>
@@ -63787,7 +63787,7 @@
         </is>
       </c>
       <c r="C3194" t="n">
-        <v>0.019</v>
+        <v>0.018</v>
       </c>
       <c r="D3194" t="inlineStr">
         <is>
@@ -64387,7 +64387,7 @@
         </is>
       </c>
       <c r="C3224" t="n">
-        <v>0.038</v>
+        <v>0.037</v>
       </c>
       <c r="D3224" t="inlineStr">
         <is>
@@ -64427,7 +64427,7 @@
         </is>
       </c>
       <c r="C3226" t="n">
-        <v>0.038</v>
+        <v>0.037</v>
       </c>
       <c r="D3226" t="inlineStr">
         <is>
@@ -64447,7 +64447,7 @@
         </is>
       </c>
       <c r="C3227" t="n">
-        <v>0.019</v>
+        <v>0.018</v>
       </c>
       <c r="D3227" t="inlineStr">
         <is>
@@ -64467,7 +64467,7 @@
         </is>
       </c>
       <c r="C3228" t="n">
-        <v>0.019</v>
+        <v>0.018</v>
       </c>
       <c r="D3228" t="inlineStr">
         <is>
@@ -64839,7 +64839,7 @@
         </is>
       </c>
       <c r="C3247" t="n">
-        <v>0.019</v>
+        <v>0.018</v>
       </c>
       <c r="D3247" t="inlineStr">
         <is>
@@ -65019,7 +65019,7 @@
         </is>
       </c>
       <c r="C3256" t="n">
-        <v>0.019</v>
+        <v>0.018</v>
       </c>
       <c r="D3256" t="inlineStr">
         <is>
@@ -65039,7 +65039,7 @@
         </is>
       </c>
       <c r="C3257" t="n">
-        <v>0.019</v>
+        <v>0.018</v>
       </c>
       <c r="D3257" t="inlineStr">
         <is>
@@ -65059,7 +65059,7 @@
         </is>
       </c>
       <c r="C3258" t="n">
-        <v>0.019</v>
+        <v>0.018</v>
       </c>
       <c r="D3258" t="inlineStr">
         <is>
@@ -65079,7 +65079,7 @@
         </is>
       </c>
       <c r="C3259" t="n">
-        <v>0.025</v>
+        <v>0.024</v>
       </c>
       <c r="D3259" t="inlineStr">
         <is>
@@ -65799,7 +65799,7 @@
         </is>
       </c>
       <c r="C3296" t="n">
-        <v>0.019</v>
+        <v>0.018</v>
       </c>
       <c r="D3296" t="inlineStr">
         <is>
@@ -65899,7 +65899,7 @@
         </is>
       </c>
       <c r="C3301" t="n">
-        <v>0.038</v>
+        <v>0.037</v>
       </c>
       <c r="D3301" t="inlineStr">
         <is>
@@ -65919,7 +65919,7 @@
         </is>
       </c>
       <c r="C3302" t="n">
-        <v>0.019</v>
+        <v>0.018</v>
       </c>
       <c r="D3302" t="inlineStr">
         <is>
@@ -66251,7 +66251,7 @@
         </is>
       </c>
       <c r="C3319" t="n">
-        <v>0.019</v>
+        <v>0.018</v>
       </c>
       <c r="D3319" t="inlineStr">
         <is>
@@ -66271,7 +66271,7 @@
         </is>
       </c>
       <c r="C3320" t="n">
-        <v>0.038</v>
+        <v>0.037</v>
       </c>
       <c r="D3320" t="inlineStr">
         <is>
@@ -66291,7 +66291,7 @@
         </is>
       </c>
       <c r="C3321" t="n">
-        <v>0.019</v>
+        <v>0.018</v>
       </c>
       <c r="D3321" t="inlineStr">
         <is>
@@ -66451,7 +66451,7 @@
         </is>
       </c>
       <c r="C3329" t="n">
-        <v>0.038</v>
+        <v>0.037</v>
       </c>
       <c r="D3329" t="inlineStr">
         <is>
@@ -66471,7 +66471,7 @@
         </is>
       </c>
       <c r="C3330" t="n">
-        <v>0.038</v>
+        <v>0.037</v>
       </c>
       <c r="D3330" t="inlineStr">
         <is>
@@ -66491,7 +66491,7 @@
         </is>
       </c>
       <c r="C3331" t="n">
-        <v>0.019</v>
+        <v>0.018</v>
       </c>
       <c r="D3331" t="inlineStr">
         <is>
@@ -66887,7 +66887,7 @@
         </is>
       </c>
       <c r="C3351" t="n">
-        <v>0.012</v>
+        <v>0.011</v>
       </c>
       <c r="D3351" t="inlineStr">
         <is>
@@ -66907,7 +66907,7 @@
         </is>
       </c>
       <c r="C3352" t="n">
-        <v>0.019</v>
+        <v>0.018</v>
       </c>
       <c r="D3352" t="inlineStr">
         <is>
@@ -66927,7 +66927,7 @@
         </is>
       </c>
       <c r="C3353" t="n">
-        <v>0.019</v>
+        <v>0.018</v>
       </c>
       <c r="D3353" t="inlineStr">
         <is>
@@ -66963,7 +66963,7 @@
         </is>
       </c>
       <c r="C3355" t="n">
-        <v>0.019</v>
+        <v>0.018</v>
       </c>
       <c r="D3355" t="inlineStr">
         <is>
@@ -67003,7 +67003,7 @@
         </is>
       </c>
       <c r="C3357" t="n">
-        <v>0.044</v>
+        <v>0.042</v>
       </c>
       <c r="D3357" t="inlineStr">
         <is>
@@ -67199,7 +67199,7 @@
         </is>
       </c>
       <c r="C3367" t="n">
-        <v>0.019</v>
+        <v>0.018</v>
       </c>
       <c r="D3367" t="inlineStr">
         <is>
@@ -67219,7 +67219,7 @@
         </is>
       </c>
       <c r="C3368" t="n">
-        <v>0.019</v>
+        <v>0.018</v>
       </c>
       <c r="D3368" t="inlineStr">
         <is>
@@ -67239,7 +67239,7 @@
         </is>
       </c>
       <c r="C3369" t="n">
-        <v>0.019</v>
+        <v>0.018</v>
       </c>
       <c r="D3369" t="inlineStr">
         <is>
@@ -67259,7 +67259,7 @@
         </is>
       </c>
       <c r="C3370" t="n">
-        <v>0.019</v>
+        <v>0.018</v>
       </c>
       <c r="D3370" t="inlineStr">
         <is>
@@ -67779,7 +67779,7 @@
         </is>
       </c>
       <c r="C3396" t="n">
-        <v>0.038</v>
+        <v>0.037</v>
       </c>
       <c r="D3396" t="inlineStr">
         <is>
@@ -69379,7 +69379,7 @@
         </is>
       </c>
       <c r="C3477" t="n">
-        <v>0.019</v>
+        <v>0.018</v>
       </c>
       <c r="D3477" t="inlineStr">
         <is>
@@ -69499,7 +69499,7 @@
         </is>
       </c>
       <c r="C3483" t="n">
-        <v>0.019</v>
+        <v>0.018</v>
       </c>
       <c r="D3483" t="inlineStr">
         <is>
@@ -70547,7 +70547,7 @@
         </is>
       </c>
       <c r="C3536" t="n">
-        <v>0.019</v>
+        <v>0.018</v>
       </c>
       <c r="D3536" t="inlineStr">
         <is>
@@ -71819,7 +71819,7 @@
         </is>
       </c>
       <c r="C3601" t="n">
-        <v>0.032</v>
+        <v>0.031</v>
       </c>
       <c r="D3601" t="inlineStr">
         <is>
@@ -71839,7 +71839,7 @@
         </is>
       </c>
       <c r="C3602" t="n">
-        <v>0.032</v>
+        <v>0.031</v>
       </c>
       <c r="D3602" t="inlineStr">
         <is>
@@ -71859,7 +71859,7 @@
         </is>
       </c>
       <c r="C3603" t="n">
-        <v>0.032</v>
+        <v>0.031</v>
       </c>
       <c r="D3603" t="inlineStr">
         <is>
@@ -73871,7 +73871,7 @@
         </is>
       </c>
       <c r="C3704" t="n">
-        <v>0.038</v>
+        <v>0.037</v>
       </c>
       <c r="D3704" t="inlineStr">
         <is>
@@ -75379,7 +75379,7 @@
         </is>
       </c>
       <c r="C3780" t="n">
-        <v>0.019</v>
+        <v>0.018</v>
       </c>
       <c r="D3780" t="inlineStr">
         <is>
@@ -75399,7 +75399,7 @@
         </is>
       </c>
       <c r="C3781" t="n">
-        <v>0.019</v>
+        <v>0.018</v>
       </c>
       <c r="D3781" t="inlineStr">
         <is>
@@ -75479,7 +75479,7 @@
         </is>
       </c>
       <c r="C3785" t="n">
-        <v>0.019</v>
+        <v>0.018</v>
       </c>
       <c r="D3785" t="inlineStr">
         <is>
@@ -75499,7 +75499,7 @@
         </is>
       </c>
       <c r="C3786" t="n">
-        <v>0.019</v>
+        <v>0.018</v>
       </c>
       <c r="D3786" t="inlineStr">
         <is>
@@ -75859,7 +75859,7 @@
         </is>
       </c>
       <c r="C3804" t="n">
-        <v>0.019</v>
+        <v>0.018</v>
       </c>
       <c r="D3804" t="inlineStr">
         <is>
@@ -76575,7 +76575,7 @@
         </is>
       </c>
       <c r="C3840" t="n">
-        <v>0.019</v>
+        <v>0.018</v>
       </c>
       <c r="D3840" t="inlineStr">
         <is>
@@ -76595,7 +76595,7 @@
         </is>
       </c>
       <c r="C3841" t="n">
-        <v>0.019</v>
+        <v>0.018</v>
       </c>
       <c r="D3841" t="inlineStr">
         <is>
@@ -76615,7 +76615,7 @@
         </is>
       </c>
       <c r="C3842" t="n">
-        <v>0.019</v>
+        <v>0.018</v>
       </c>
       <c r="D3842" t="inlineStr">
         <is>
@@ -76635,7 +76635,7 @@
         </is>
       </c>
       <c r="C3843" t="n">
-        <v>0.019</v>
+        <v>0.018</v>
       </c>
       <c r="D3843" t="inlineStr">
         <is>
@@ -76927,7 +76927,7 @@
         </is>
       </c>
       <c r="C3858" t="n">
-        <v>0.038</v>
+        <v>0.037</v>
       </c>
       <c r="D3858" t="inlineStr">
         <is>
@@ -76947,7 +76947,7 @@
         </is>
       </c>
       <c r="C3859" t="n">
-        <v>0.019</v>
+        <v>0.018</v>
       </c>
       <c r="D3859" t="inlineStr">
         <is>
@@ -76967,7 +76967,7 @@
         </is>
       </c>
       <c r="C3860" t="n">
-        <v>0.019</v>
+        <v>0.018</v>
       </c>
       <c r="D3860" t="inlineStr">
         <is>
@@ -78527,7 +78527,7 @@
         </is>
       </c>
       <c r="C3938" t="n">
-        <v>0.038</v>
+        <v>0.037</v>
       </c>
       <c r="D3938" t="inlineStr">
         <is>
@@ -79903,7 +79903,7 @@
         </is>
       </c>
       <c r="C4007" t="n">
-        <v>0.019</v>
+        <v>0.018</v>
       </c>
       <c r="D4007" t="inlineStr">
         <is>
@@ -80019,7 +80019,7 @@
         </is>
       </c>
       <c r="C4013" t="n">
-        <v>0.04</v>
+        <v>0.039</v>
       </c>
       <c r="D4013" t="inlineStr">
         <is>
@@ -80099,7 +80099,7 @@
         </is>
       </c>
       <c r="C4017" t="n">
-        <v>0.019</v>
+        <v>0.018</v>
       </c>
       <c r="D4017" t="inlineStr">
         <is>
@@ -80299,7 +80299,7 @@
         </is>
       </c>
       <c r="C4027" t="n">
-        <v>0.038</v>
+        <v>0.037</v>
       </c>
       <c r="D4027" t="inlineStr">
         <is>
@@ -80319,7 +80319,7 @@
         </is>
       </c>
       <c r="C4028" t="n">
-        <v>0.038</v>
+        <v>0.037</v>
       </c>
       <c r="D4028" t="inlineStr">
         <is>
@@ -80339,7 +80339,7 @@
         </is>
       </c>
       <c r="C4029" t="n">
-        <v>0.038</v>
+        <v>0.037</v>
       </c>
       <c r="D4029" t="inlineStr">
         <is>
@@ -80419,7 +80419,7 @@
         </is>
       </c>
       <c r="C4033" t="n">
-        <v>0.038</v>
+        <v>0.037</v>
       </c>
       <c r="D4033" t="inlineStr">
         <is>
@@ -80499,7 +80499,7 @@
         </is>
       </c>
       <c r="C4037" t="n">
-        <v>0.038</v>
+        <v>0.037</v>
       </c>
       <c r="D4037" t="inlineStr">
         <is>
@@ -80519,7 +80519,7 @@
         </is>
       </c>
       <c r="C4038" t="n">
-        <v>0.038</v>
+        <v>0.037</v>
       </c>
       <c r="D4038" t="inlineStr">
         <is>
@@ -80539,7 +80539,7 @@
         </is>
       </c>
       <c r="C4039" t="n">
-        <v>0.038</v>
+        <v>0.037</v>
       </c>
       <c r="D4039" t="inlineStr">
         <is>
@@ -81039,7 +81039,7 @@
         </is>
       </c>
       <c r="C4064" t="n">
-        <v>0.038</v>
+        <v>0.037</v>
       </c>
       <c r="D4064" t="inlineStr">
         <is>
@@ -81099,7 +81099,7 @@
         </is>
       </c>
       <c r="C4067" t="n">
-        <v>0.019</v>
+        <v>0.018</v>
       </c>
       <c r="D4067" t="inlineStr">
         <is>
@@ -81379,7 +81379,7 @@
         </is>
       </c>
       <c r="C4081" t="n">
-        <v>0.019</v>
+        <v>0.018</v>
       </c>
       <c r="D4081" t="inlineStr">
         <is>
@@ -81539,7 +81539,7 @@
         </is>
       </c>
       <c r="C4089" t="n">
-        <v>0.019</v>
+        <v>0.018</v>
       </c>
       <c r="D4089" t="inlineStr">
         <is>
@@ -81559,7 +81559,7 @@
         </is>
       </c>
       <c r="C4090" t="n">
-        <v>0.038</v>
+        <v>0.037</v>
       </c>
       <c r="D4090" t="inlineStr">
         <is>
@@ -81939,7 +81939,7 @@
         </is>
       </c>
       <c r="C4109" t="n">
-        <v>0.019</v>
+        <v>0.018</v>
       </c>
       <c r="D4109" t="inlineStr">
         <is>
@@ -81959,7 +81959,7 @@
         </is>
       </c>
       <c r="C4110" t="n">
-        <v>0.019</v>
+        <v>0.018</v>
       </c>
       <c r="D4110" t="inlineStr">
         <is>
@@ -82799,7 +82799,7 @@
         </is>
       </c>
       <c r="C4152" t="n">
-        <v>0.038</v>
+        <v>0.037</v>
       </c>
       <c r="D4152" t="inlineStr">
         <is>
@@ -82919,7 +82919,7 @@
         </is>
       </c>
       <c r="C4158" t="n">
-        <v>0.038</v>
+        <v>0.037</v>
       </c>
       <c r="D4158" t="inlineStr">
         <is>
@@ -82939,7 +82939,7 @@
         </is>
       </c>
       <c r="C4159" t="n">
-        <v>0.038</v>
+        <v>0.037</v>
       </c>
       <c r="D4159" t="inlineStr">
         <is>
@@ -82959,7 +82959,7 @@
         </is>
       </c>
       <c r="C4160" t="n">
-        <v>0.038</v>
+        <v>0.037</v>
       </c>
       <c r="D4160" t="inlineStr">
         <is>
@@ -82979,7 +82979,7 @@
         </is>
       </c>
       <c r="C4161" t="n">
-        <v>0.038</v>
+        <v>0.037</v>
       </c>
       <c r="D4161" t="inlineStr">
         <is>
@@ -82999,7 +82999,7 @@
         </is>
       </c>
       <c r="C4162" t="n">
-        <v>0.038</v>
+        <v>0.037</v>
       </c>
       <c r="D4162" t="inlineStr">
         <is>
@@ -83535,7 +83535,7 @@
         </is>
       </c>
       <c r="C4189" t="n">
-        <v>0.038</v>
+        <v>0.037</v>
       </c>
       <c r="D4189" t="inlineStr">
         <is>
@@ -83615,7 +83615,7 @@
         </is>
       </c>
       <c r="C4193" t="n">
-        <v>0.019</v>
+        <v>0.018</v>
       </c>
       <c r="D4193" t="inlineStr">
         <is>
@@ -83835,7 +83835,7 @@
         </is>
       </c>
       <c r="C4204" t="n">
-        <v>0.038</v>
+        <v>0.037</v>
       </c>
       <c r="D4204" t="inlineStr">
         <is>
@@ -83855,7 +83855,7 @@
         </is>
       </c>
       <c r="C4205" t="n">
-        <v>0.038</v>
+        <v>0.037</v>
       </c>
       <c r="D4205" t="inlineStr">
         <is>
@@ -83875,7 +83875,7 @@
         </is>
       </c>
       <c r="C4206" t="n">
-        <v>0.038</v>
+        <v>0.037</v>
       </c>
       <c r="D4206" t="inlineStr">
         <is>
